--- a/plotly_aths_dashboard/Datasets/NASS list (20-21).xlsx
+++ b/plotly_aths_dashboard/Datasets/NASS list (20-21).xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newmac/Desktop/Athlete dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newmac/PycharmProjects/results-webanalytics/plotly_aths_dashboard/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A49223F5-0C89-0243-AB1D-1B4A73FD5CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36519013-7183-0A46-B4C9-EC970E1EAF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="660" windowWidth="26700" windowHeight="16340" activeTab="3" xr2:uid="{564ED280-EDFD-4442-B0F6-6AEC38A6FF97}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="26700" windowHeight="16340" activeTab="2" xr2:uid="{564ED280-EDFD-4442-B0F6-6AEC38A6FF97}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Nass Athletes" sheetId="1" r:id="rId1"/>
     <sheet name="Kelsey-Lee Barber" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="Darcy Roper" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Darcy Roper" sheetId="7" r:id="rId3"/>
     <sheet name="Event_Rankings_Top10" sheetId="5" r:id="rId4"/>
     <sheet name="Championship_Results" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
@@ -1623,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1794,7 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1874,14 +1874,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3776,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C8C5C5-42D1-294F-8EBE-5DB2AB981F3D}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10168,8 +10162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA02911C-CB56-034B-A75D-38FD8F858499}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10269,7 +10263,7 @@
         <f>MAX($O$2:O2)</f>
         <v>7.75</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="61">
         <v>42407</v>
       </c>
       <c r="J2" s="30" t="s">
@@ -10337,7 +10331,7 @@
         <f>MAX($O$2:O3)</f>
         <v>7.75</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="61">
         <v>42414</v>
       </c>
       <c r="J3" s="30" t="s">
@@ -10402,7 +10396,7 @@
         <f>MAX($O$2:O4)</f>
         <v>7.83</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="61">
         <v>42420</v>
       </c>
       <c r="J4" s="30" t="s">
@@ -10467,7 +10461,7 @@
         <f>MAX($O$2:O5)</f>
         <v>7.83</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="61">
         <v>42434</v>
       </c>
       <c r="J5" s="30" t="s">
@@ -10532,7 +10526,7 @@
         <f>MAX($O$2:O6)</f>
         <v>7.83</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="61">
         <v>42440</v>
       </c>
       <c r="J6" s="30" t="s">
@@ -10597,7 +10591,7 @@
         <f>MAX($O$2:O7)</f>
         <v>7.83</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="61">
         <v>42461</v>
       </c>
       <c r="J7" s="30" t="s">
@@ -10662,7 +10656,7 @@
         <f>MAX($O$2:O8)</f>
         <v>7.83</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="61">
         <v>42463</v>
       </c>
       <c r="J8" s="30" t="s">
@@ -10727,7 +10721,7 @@
         <f>MAX($O$2:O9)</f>
         <v>7.83</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="61">
         <v>42476</v>
       </c>
       <c r="J9" s="30" t="s">
@@ -10792,7 +10786,7 @@
         <f>MAX($O$2:O10)</f>
         <v>7.83</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="61">
         <v>42547</v>
       </c>
       <c r="J10" s="30" t="s">
@@ -10857,7 +10851,7 @@
         <f>MAX($O$2:O11)</f>
         <v>7.83</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="61">
         <v>42552</v>
       </c>
       <c r="J11" s="30" t="s">
@@ -10922,7 +10916,7 @@
         <f>MAX($O$2:O12)</f>
         <v>7.83</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="61">
         <v>42570</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -10987,7 +10981,7 @@
         <f>MAX($O$2:O13)</f>
         <v>7.88</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="62">
         <v>42571</v>
       </c>
       <c r="J13" s="42" t="s">
@@ -11045,14 +11039,14 @@
       <c r="F14" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="32">
         <v>8.01</v>
       </c>
       <c r="H14" s="32">
         <f>MAX($O$14:O14)</f>
         <v>7.3</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="61">
         <v>42769</v>
       </c>
       <c r="J14" s="30" t="s">
@@ -11082,8 +11076,8 @@
       <c r="R14" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S14" s="61" t="s">
-        <v>260</v>
+      <c r="S14" t="s">
+        <v>258</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
@@ -11110,14 +11104,14 @@
       <c r="F15" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="32">
         <v>8.01</v>
       </c>
       <c r="H15" s="32">
         <f>MAX($O$14:O15)</f>
         <v>7.57</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="61">
         <v>42783</v>
       </c>
       <c r="J15" s="30" t="s">
@@ -11147,8 +11141,8 @@
       <c r="R15" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S15" s="61" t="s">
-        <v>260</v>
+      <c r="S15" t="s">
+        <v>258</v>
       </c>
       <c r="T15">
         <f t="shared" si="2"/>
@@ -11175,14 +11169,14 @@
       <c r="F16" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="32">
         <v>8.01</v>
       </c>
       <c r="H16" s="32">
         <f>MAX($O$14:O16)</f>
         <v>7.57</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="61">
         <v>42791</v>
       </c>
       <c r="J16" s="30" t="s">
@@ -11212,8 +11206,8 @@
       <c r="R16" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S16" s="61" t="s">
-        <v>260</v>
+      <c r="S16" t="s">
+        <v>258</v>
       </c>
       <c r="T16">
         <f t="shared" si="2"/>
@@ -11240,14 +11234,14 @@
       <c r="F17" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="32">
         <v>8.01</v>
       </c>
       <c r="H17" s="32">
         <f>MAX($O$14:O17)</f>
         <v>7.76</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="61">
         <v>42806</v>
       </c>
       <c r="J17" s="30" t="s">
@@ -11277,8 +11271,8 @@
       <c r="R17" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S17" s="61" t="s">
-        <v>260</v>
+      <c r="S17" t="s">
+        <v>258</v>
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
@@ -11305,14 +11299,14 @@
       <c r="F18" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="32">
         <v>8.01</v>
       </c>
       <c r="H18" s="32">
         <f>MAX($O$14:O18)</f>
         <v>7.79</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="61">
         <v>42820</v>
       </c>
       <c r="J18" s="30" t="s">
@@ -11342,8 +11336,8 @@
       <c r="R18" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S18" s="61" t="s">
-        <v>260</v>
+      <c r="S18" t="s">
+        <v>258</v>
       </c>
       <c r="T18">
         <f t="shared" si="2"/>
@@ -11370,14 +11364,14 @@
       <c r="F19" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="32">
         <v>8.01</v>
       </c>
       <c r="H19" s="32">
         <f>MAX($O$14:O19)</f>
         <v>7.79</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="61">
         <v>42825</v>
       </c>
       <c r="J19" s="30" t="s">
@@ -11407,8 +11401,8 @@
       <c r="R19" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S19" s="61" t="s">
-        <v>260</v>
+      <c r="S19" t="s">
+        <v>258</v>
       </c>
       <c r="T19">
         <f t="shared" si="2"/>
@@ -11435,14 +11429,14 @@
       <c r="F20" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="32">
         <v>8.01</v>
       </c>
       <c r="H20" s="32">
         <f>MAX($O$14:O20)</f>
         <v>7.79</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="61">
         <v>42825</v>
       </c>
       <c r="J20" s="30" t="s">
@@ -11470,8 +11464,8 @@
       <c r="R20" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S20" s="61" t="s">
-        <v>260</v>
+      <c r="S20" t="s">
+        <v>258</v>
       </c>
       <c r="T20">
         <f t="shared" si="2"/>
@@ -11498,14 +11492,14 @@
       <c r="F21" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="32">
         <v>8.01</v>
       </c>
       <c r="H21" s="32">
         <f>MAX($O$14:O21)</f>
         <v>7.79</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="61">
         <v>42924</v>
       </c>
       <c r="J21" s="30" t="s">
@@ -11535,8 +11529,8 @@
       <c r="R21" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S21" s="61" t="s">
-        <v>260</v>
+      <c r="S21" t="s">
+        <v>258</v>
       </c>
       <c r="T21">
         <f t="shared" si="2"/>
@@ -11563,14 +11557,14 @@
       <c r="F22" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="32">
         <v>8.01</v>
       </c>
       <c r="H22" s="32">
         <f>MAX($O$14:O22)</f>
         <v>7.79</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="61">
         <v>43003</v>
       </c>
       <c r="J22" s="30" t="s">
@@ -11600,8 +11594,8 @@
       <c r="R22" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S22" s="61" t="s">
-        <v>260</v>
+      <c r="S22" t="s">
+        <v>258</v>
       </c>
       <c r="T22">
         <f t="shared" si="2"/>
@@ -11628,14 +11622,14 @@
       <c r="F23" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="32">
         <v>8.01</v>
       </c>
       <c r="H23" s="32">
         <f>MAX($O$14:O23)</f>
         <v>7.79</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="61">
         <v>43064</v>
       </c>
       <c r="J23" s="30" t="s">
@@ -11665,8 +11659,8 @@
       <c r="R23" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S23" s="61" t="s">
-        <v>260</v>
+      <c r="S23" t="s">
+        <v>258</v>
       </c>
       <c r="T23">
         <f t="shared" si="2"/>
@@ -11693,14 +11687,14 @@
       <c r="F24" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="40">
         <v>8.01</v>
       </c>
       <c r="H24" s="40">
         <f>MAX($O$14:O24)</f>
         <v>7.86</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="62">
         <v>43085</v>
       </c>
       <c r="J24" s="42" t="s">
@@ -11730,8 +11724,8 @@
       <c r="R24" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="S24" s="64" t="s">
-        <v>260</v>
+      <c r="S24" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="T24" s="36">
         <f t="shared" si="2"/>
@@ -11758,14 +11752,14 @@
       <c r="F25" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="32">
         <v>8.01</v>
       </c>
       <c r="H25" s="32">
         <f>MAX($O$25:O25)</f>
         <v>7.38</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="61">
         <v>43113</v>
       </c>
       <c r="J25" s="30" t="s">
@@ -11795,10 +11789,10 @@
       <c r="R25" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S25" s="61" t="s">
+      <c r="S25" t="s">
         <v>258</v>
       </c>
-      <c r="T25" s="65">
+      <c r="T25">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -11823,14 +11817,14 @@
       <c r="F26" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="32">
         <v>8.01</v>
       </c>
       <c r="H26" s="32">
         <f>MAX($O$25:O26)</f>
         <v>7.68</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="61">
         <v>43134</v>
       </c>
       <c r="J26" s="30" t="s">
@@ -11860,10 +11854,10 @@
       <c r="R26" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S26" s="61" t="s">
+      <c r="S26" t="s">
         <v>258</v>
       </c>
-      <c r="T26" s="65">
+      <c r="T26">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -11888,14 +11882,14 @@
       <c r="F27" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="32">
         <v>8.01</v>
       </c>
       <c r="H27" s="32">
         <f>MAX($O$25:O27)</f>
         <v>7.68</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="61">
         <v>43148</v>
       </c>
       <c r="J27" s="30" t="s">
@@ -11925,10 +11919,10 @@
       <c r="R27" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S27" s="61" t="s">
+      <c r="S27" t="s">
         <v>258</v>
       </c>
-      <c r="T27" s="65">
+      <c r="T27">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -11953,14 +11947,14 @@
       <c r="F28" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="40">
         <v>8.01</v>
       </c>
       <c r="H28" s="40">
         <f>MAX($O$25:O28)</f>
         <v>7.82</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="62">
         <v>43433</v>
       </c>
       <c r="J28" s="42" t="s">
@@ -11990,7 +11984,7 @@
       <c r="R28" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="S28" s="64" t="s">
+      <c r="S28" s="36" t="s">
         <v>258</v>
       </c>
       <c r="T28" s="36">
@@ -12018,14 +12012,14 @@
       <c r="F29" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="32">
         <v>8.01</v>
       </c>
       <c r="H29" s="32">
         <f>MAX($O$29:O29)</f>
         <v>7.79</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="61">
         <v>43484</v>
       </c>
       <c r="J29" s="30" t="s">
@@ -12055,10 +12049,10 @@
       <c r="R29" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S29" s="61" t="s">
+      <c r="S29" t="s">
         <v>258</v>
       </c>
-      <c r="T29" s="65">
+      <c r="T29">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -12083,14 +12077,14 @@
       <c r="F30" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G30" s="62">
+      <c r="G30" s="32">
         <v>8.01</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="32">
         <f>MAX($O$29:O30)</f>
         <v>7.79</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="61">
         <v>43493</v>
       </c>
       <c r="J30" s="30" t="s">
@@ -12120,10 +12114,10 @@
       <c r="R30" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S30" s="61" t="s">
+      <c r="S30" t="s">
         <v>258</v>
       </c>
-      <c r="T30" s="65">
+      <c r="T30">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -12148,14 +12142,14 @@
       <c r="F31" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G31" s="62">
+      <c r="G31" s="32">
         <v>8.01</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="32">
         <f>MAX($O$29:O31)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="61">
         <v>43505</v>
       </c>
       <c r="J31" s="30" t="s">
@@ -12185,10 +12179,10 @@
       <c r="R31" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S31" s="61" t="s">
+      <c r="S31" t="s">
         <v>258</v>
       </c>
-      <c r="T31" s="65">
+      <c r="T31">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -12213,14 +12207,14 @@
       <c r="F32" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G32" s="62">
+      <c r="G32" s="32">
         <v>8.01</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="32">
         <f>MAX($O$29:O32)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="61">
         <v>43505</v>
       </c>
       <c r="J32" s="30" t="s">
@@ -12248,10 +12242,10 @@
       <c r="R32" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S32" s="61" t="s">
+      <c r="S32" t="s">
         <v>258</v>
       </c>
-      <c r="T32" s="65">
+      <c r="T32">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -12276,14 +12270,14 @@
       <c r="F33" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="32">
         <v>8.01</v>
       </c>
-      <c r="H33" s="66">
+      <c r="H33" s="32">
         <f>MAX($O$29:O33)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="61">
         <v>43533</v>
       </c>
       <c r="J33" s="30" t="s">
@@ -12313,10 +12307,10 @@
       <c r="R33" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S33" s="61" t="s">
+      <c r="S33" t="s">
         <v>258</v>
       </c>
-      <c r="T33" s="65">
+      <c r="T33">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -12341,14 +12335,14 @@
       <c r="F34" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="32">
         <v>8.1300000000000008</v>
       </c>
-      <c r="H34" s="66">
+      <c r="H34" s="32">
         <f>MAX($O$29:O34)</f>
         <v>8.32</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="61">
         <v>43540</v>
       </c>
       <c r="J34" s="30" t="s">
@@ -12378,10 +12372,10 @@
       <c r="R34" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S34" s="61" t="s">
+      <c r="S34" t="s">
         <v>258</v>
       </c>
-      <c r="T34" s="65">
+      <c r="T34">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -12406,14 +12400,14 @@
       <c r="F35" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="32">
         <v>8.1300000000000008</v>
       </c>
-      <c r="H35" s="66">
+      <c r="H35" s="32">
         <f>MAX($O$29:O35)</f>
         <v>8.32</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="61">
         <v>43540</v>
       </c>
       <c r="J35" s="30" t="s">
@@ -12441,10 +12435,10 @@
       <c r="R35" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S35" s="61" t="s">
+      <c r="S35" t="s">
         <v>258</v>
       </c>
-      <c r="T35" s="65">
+      <c r="T35">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -12469,14 +12463,14 @@
       <c r="F36" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="32">
         <v>8.1300000000000008</v>
       </c>
-      <c r="H36" s="66">
+      <c r="H36" s="32">
         <f>MAX($O$29:O36)</f>
         <v>8.32</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="61">
         <v>43547</v>
       </c>
       <c r="J36" s="30" t="s">
@@ -12506,10 +12500,10 @@
       <c r="R36" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S36" s="61" t="s">
+      <c r="S36" t="s">
         <v>258</v>
       </c>
-      <c r="T36" s="65">
+      <c r="T36">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -12534,14 +12528,14 @@
       <c r="F37" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G37" s="62">
+      <c r="G37" s="32">
         <v>8.1300000000000008</v>
       </c>
-      <c r="H37" s="66">
+      <c r="H37" s="32">
         <f>MAX($O$29:O37)</f>
         <v>8.32</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="61">
         <v>43646</v>
       </c>
       <c r="J37" s="30" t="s">
@@ -12571,10 +12565,10 @@
       <c r="R37" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="S37" s="61" t="s">
+      <c r="S37" t="s">
         <v>260</v>
       </c>
-      <c r="T37" s="65">
+      <c r="T37">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -12599,14 +12593,14 @@
       <c r="F38" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G38" s="62">
+      <c r="G38" s="32">
         <v>8.1300000000000008</v>
       </c>
-      <c r="H38" s="66">
+      <c r="H38" s="32">
         <f>MAX($O$29:O38)</f>
         <v>8.32</v>
       </c>
-      <c r="I38" s="67">
+      <c r="I38" s="61">
         <v>43651</v>
       </c>
       <c r="J38" s="30" t="s">
@@ -12636,10 +12630,10 @@
       <c r="R38" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="S38" s="61" t="s">
+      <c r="S38" t="s">
         <v>260</v>
       </c>
-      <c r="T38" s="65">
+      <c r="T38">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -12664,14 +12658,14 @@
       <c r="F39" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="32">
         <v>8.1300000000000008</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="32">
         <f>MAX($O$29:O39)</f>
         <v>8.32</v>
       </c>
-      <c r="I39" s="67">
+      <c r="I39" s="61">
         <v>43658</v>
       </c>
       <c r="J39" s="30" t="s">
@@ -12701,10 +12695,10 @@
       <c r="R39" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="S39" s="61" t="s">
+      <c r="S39" t="s">
         <v>260</v>
       </c>
-      <c r="T39" s="65">
+      <c r="T39">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -12729,14 +12723,14 @@
       <c r="F40" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="32">
         <v>8.1300000000000008</v>
       </c>
-      <c r="H40" s="66">
+      <c r="H40" s="32">
         <f>MAX($O$29:O40)</f>
         <v>8.32</v>
       </c>
-      <c r="I40" s="67">
+      <c r="I40" s="61">
         <v>43659</v>
       </c>
       <c r="J40" s="30" t="s">
@@ -12766,10 +12760,10 @@
       <c r="R40" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="S40" s="61" t="s">
+      <c r="S40" t="s">
         <v>260</v>
       </c>
-      <c r="T40" s="65">
+      <c r="T40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -12794,14 +12788,14 @@
       <c r="F41" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="G41" s="63">
+      <c r="G41" s="40">
         <v>8.1300000000000008</v>
       </c>
       <c r="H41" s="40">
         <f>MAX($O$29:O41)</f>
         <v>8.32</v>
       </c>
-      <c r="I41" s="68">
+      <c r="I41" s="62">
         <v>43735</v>
       </c>
       <c r="J41" s="42" t="s">
@@ -12840,7 +12834,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="61">
+      <c r="A42">
         <v>2020</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -12859,14 +12853,14 @@
       <c r="F42" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G42" s="62">
+      <c r="G42" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H42" s="66">
+      <c r="H42" s="32">
         <f>MAX($O$42:O43)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="61">
         <v>43855</v>
       </c>
       <c r="J42" s="30" t="s">
@@ -12896,16 +12890,16 @@
       <c r="R42" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S42" s="61" t="s">
+      <c r="S42" t="s">
         <v>258</v>
       </c>
-      <c r="T42" s="65">
+      <c r="T42">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="64">
+      <c r="A43" s="36">
         <v>2020</v>
       </c>
       <c r="B43" s="37" t="s">
@@ -12924,14 +12918,14 @@
       <c r="F43" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="G43" s="63">
+      <c r="G43" s="40">
         <v>8.1999999999999993</v>
       </c>
       <c r="H43" s="40">
         <f>MAX($O$42:O44)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="I43" s="68">
+      <c r="I43" s="62">
         <v>43862</v>
       </c>
       <c r="J43" s="42" t="s">
@@ -12961,7 +12955,7 @@
       <c r="R43" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="S43" s="64" t="s">
+      <c r="S43" s="36" t="s">
         <v>258</v>
       </c>
       <c r="T43" s="36">
@@ -12970,7 +12964,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="61">
+      <c r="A44">
         <v>2021</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -12989,14 +12983,14 @@
       <c r="F44" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H44" s="66">
+      <c r="H44" s="32">
         <f>MAX($O$44:O46)</f>
         <v>8.02</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="61">
         <v>44222</v>
       </c>
       <c r="J44" s="30" t="s">
@@ -13026,16 +13020,16 @@
       <c r="R44" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S44" s="61" t="s">
+      <c r="S44" t="s">
         <v>258</v>
       </c>
-      <c r="T44" s="65">
+      <c r="T44">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="61">
+      <c r="A45">
         <v>2021</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -13054,13 +13048,13 @@
       <c r="F45" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G45" s="62">
+      <c r="G45" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="32">
         <v>7.96</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="61">
         <v>44376</v>
       </c>
       <c r="J45" s="30" t="s">
@@ -13090,16 +13084,16 @@
       <c r="R45" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="S45" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="T45" s="65">
+      <c r="S45" t="s">
+        <v>260</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="64">
+      <c r="A46" s="36">
         <v>2021</v>
       </c>
       <c r="B46" s="37" t="s">
@@ -13118,13 +13112,13 @@
       <c r="F46" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="G46" s="63">
+      <c r="G46" s="40">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H46" s="63">
+      <c r="H46" s="40">
         <v>7.96</v>
       </c>
-      <c r="I46" s="68">
+      <c r="I46" s="62">
         <v>44384</v>
       </c>
       <c r="J46" s="42" t="s">
@@ -13154,8 +13148,8 @@
       <c r="R46" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="S46" s="64" t="s">
-        <v>258</v>
+      <c r="S46" s="36" t="s">
+        <v>260</v>
       </c>
       <c r="T46" s="36">
         <f t="shared" si="2"/>
@@ -13163,7 +13157,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="61">
+      <c r="A47">
         <v>2022</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -13182,14 +13176,14 @@
       <c r="F47" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G47" s="62">
+      <c r="G47" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H47" s="66">
+      <c r="H47" s="32">
         <f>MAX($O$47:O47)</f>
         <v>7.84</v>
       </c>
-      <c r="I47" s="67">
+      <c r="I47" s="61">
         <v>44719</v>
       </c>
       <c r="J47" s="30" t="s">
@@ -13219,16 +13213,16 @@
       <c r="R47" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S47" s="61" t="s">
+      <c r="S47" t="s">
         <v>258</v>
       </c>
-      <c r="T47" s="65">
+      <c r="T47">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="61">
+      <c r="A48">
         <v>2022</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -13247,14 +13241,14 @@
       <c r="F48" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G48" s="62">
+      <c r="G48" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H48" s="66">
+      <c r="H48" s="32">
         <f>MAX($O$47:O48)</f>
         <v>7.96</v>
       </c>
-      <c r="I48" s="67">
+      <c r="I48" s="61">
         <v>44736</v>
       </c>
       <c r="J48" s="30" t="s">
@@ -13284,16 +13278,16 @@
       <c r="R48" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="S48" s="61" t="s">
+      <c r="S48" t="s">
         <v>258</v>
       </c>
-      <c r="T48" s="65">
+      <c r="T48">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="61">
+      <c r="A49">
         <v>2022</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -13312,14 +13306,14 @@
       <c r="F49" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G49" s="62">
+      <c r="G49" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H49" s="66">
+      <c r="H49" s="32">
         <f>MAX($O$47:O49)</f>
         <v>7.96</v>
       </c>
-      <c r="I49" s="67">
+      <c r="I49" s="61">
         <v>44803</v>
       </c>
       <c r="J49" s="30" t="s">
@@ -13349,16 +13343,16 @@
       <c r="R49" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="S49" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="T49" s="65">
+      <c r="S49" t="s">
+        <v>260</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="61">
+      <c r="A50">
         <v>2022</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -13377,14 +13371,14 @@
       <c r="F50" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G50" s="62">
+      <c r="G50" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H50" s="66">
+      <c r="H50" s="32">
         <f>MAX($O$47:O50)</f>
         <v>7.99</v>
       </c>
-      <c r="I50" s="67">
+      <c r="I50" s="61">
         <v>44808</v>
       </c>
       <c r="J50" s="30" t="s">
@@ -13414,10 +13408,10 @@
       <c r="R50" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="S50" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="T50" s="65">
+      <c r="S50" t="s">
+        <v>260</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -13438,7 +13432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E385460-5F7A-084B-9EC1-72D46B532A02}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -13843,10 +13837,10 @@
       <c r="F1" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="65" t="s">
         <v>524</v>
       </c>
     </row>
@@ -13869,7 +13863,7 @@
       <c r="F2" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="64">
         <v>9.86</v>
       </c>
       <c r="H2" s="47">
@@ -13895,7 +13889,7 @@
       <c r="F3" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="64">
         <v>9.8800000000000008</v>
       </c>
       <c r="H3" s="47">
@@ -13921,7 +13915,7 @@
       <c r="F4" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="64">
         <v>9.8800000000000008</v>
       </c>
       <c r="H4" s="47">
@@ -13947,7 +13941,7 @@
       <c r="F5" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="64">
         <v>9.9700000000000006</v>
       </c>
       <c r="H5" s="47">
@@ -13973,7 +13967,7 @@
       <c r="F6" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="64">
         <v>10.01</v>
       </c>
       <c r="H6" s="47">
@@ -13999,7 +13993,7 @@
       <c r="F7" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="64">
         <v>10.01</v>
       </c>
       <c r="H7" s="47">
@@ -14025,7 +14019,7 @@
       <c r="F8" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="64">
         <v>10.06</v>
       </c>
       <c r="H8" s="47">
@@ -14051,7 +14045,7 @@
       <c r="F9" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="64">
         <v>10.07</v>
       </c>
       <c r="H9" s="47">
@@ -14077,7 +14071,7 @@
       <c r="F11" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="64">
         <v>10.67</v>
       </c>
       <c r="H11" s="47">
@@ -14103,7 +14097,7 @@
       <c r="F12" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="64">
         <v>10.73</v>
       </c>
       <c r="H12" s="47">
@@ -14129,7 +14123,7 @@
       <c r="F13" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="64">
         <v>10.81</v>
       </c>
       <c r="H13" s="47">
@@ -14155,7 +14149,7 @@
       <c r="F14" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="64">
         <v>10.83</v>
       </c>
       <c r="H14" s="47">
@@ -14181,7 +14175,7 @@
       <c r="F15" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="64">
         <v>10.91</v>
       </c>
       <c r="H15" s="47">
@@ -14207,7 +14201,7 @@
       <c r="F16" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="64">
         <v>10.92</v>
       </c>
       <c r="H16" s="47">
@@ -14233,7 +14227,7 @@
       <c r="F17" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="64">
         <v>10.93</v>
       </c>
       <c r="H17" s="47">
@@ -14259,7 +14253,7 @@
       <c r="F18" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="64">
         <v>11.03</v>
       </c>
       <c r="H18" s="47">
@@ -14285,7 +14279,7 @@
       <c r="F22" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="64">
         <v>2.37</v>
       </c>
     </row>
@@ -14308,7 +14302,7 @@
       <c r="F23" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="64">
         <v>2.35</v>
       </c>
     </row>
@@ -14331,7 +14325,7 @@
       <c r="F24" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="64">
         <v>2.33</v>
       </c>
     </row>
@@ -14354,7 +14348,7 @@
       <c r="F25" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="64">
         <v>2.33</v>
       </c>
     </row>
@@ -14377,7 +14371,7 @@
       <c r="F26" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="64">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -14400,7 +14394,7 @@
       <c r="F27" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="64">
         <v>2.27</v>
       </c>
     </row>
@@ -14423,7 +14417,7 @@
       <c r="F28" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="64">
         <v>2.27</v>
       </c>
     </row>
@@ -14446,7 +14440,7 @@
       <c r="F29" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="64">
         <v>2.27</v>
       </c>
     </row>
@@ -14469,7 +14463,7 @@
       <c r="F30" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="64">
         <v>2.27</v>
       </c>
     </row>
@@ -14492,7 +14486,7 @@
       <c r="F31" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="64">
         <v>2.27</v>
       </c>
     </row>
@@ -14515,7 +14509,7 @@
       <c r="F32" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="64">
         <v>2.2400000000000002</v>
       </c>
     </row>
@@ -14538,7 +14532,7 @@
       <c r="F33" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="64">
         <v>2.2400000000000002</v>
       </c>
     </row>
@@ -14561,7 +14555,7 @@
       <c r="F34" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="64">
         <v>2.19</v>
       </c>
     </row>
@@ -14584,7 +14578,7 @@
       <c r="F36" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="64">
         <v>2.02</v>
       </c>
     </row>
@@ -14607,7 +14601,7 @@
       <c r="F37" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="G37" s="70">
+      <c r="G37" s="64">
         <v>2.02</v>
       </c>
     </row>
@@ -14630,7 +14624,7 @@
       <c r="F38" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="G38" s="70">
+      <c r="G38" s="64">
         <v>2</v>
       </c>
     </row>
@@ -14653,7 +14647,7 @@
       <c r="F39" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="64">
         <v>2</v>
       </c>
     </row>
@@ -14676,7 +14670,7 @@
       <c r="F40" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="64">
         <v>1.96</v>
       </c>
     </row>
@@ -14699,7 +14693,7 @@
       <c r="F41" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="64">
         <v>1.96</v>
       </c>
     </row>
@@ -14722,7 +14716,7 @@
       <c r="F42" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="64">
         <v>1.96</v>
       </c>
     </row>
@@ -14745,7 +14739,7 @@
       <c r="F43" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="64">
         <v>1.96</v>
       </c>
     </row>
@@ -14768,7 +14762,7 @@
       <c r="F44" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G44" s="70">
+      <c r="G44" s="64">
         <v>1.93</v>
       </c>
     </row>
@@ -14791,7 +14785,7 @@
       <c r="F45" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="G45" s="70">
+      <c r="G45" s="64">
         <v>1.93</v>
       </c>
     </row>
@@ -14814,7 +14808,7 @@
       <c r="F46" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G46" s="70">
+      <c r="G46" s="64">
         <v>1.89</v>
       </c>
     </row>
@@ -14837,7 +14831,7 @@
       <c r="F47" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="G47" s="70">
+      <c r="G47" s="64">
         <v>1.89</v>
       </c>
     </row>
@@ -14845,7 +14839,7 @@
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
       <c r="F48" s="47"/>
-      <c r="G48" s="70"/>
+      <c r="G48" s="64"/>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -14860,13 +14854,13 @@
       <c r="D49" s="47">
         <v>1677</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="63" t="s">
         <v>510</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="G49" s="70">
+      <c r="G49" s="64">
         <v>8.36</v>
       </c>
       <c r="H49" s="47">
@@ -14886,13 +14880,13 @@
       <c r="D50" s="47">
         <v>1944</v>
       </c>
-      <c r="E50" s="69" t="s">
+      <c r="E50" s="63" t="s">
         <v>511</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>512</v>
       </c>
-      <c r="G50" s="70">
+      <c r="G50" s="64">
         <v>8.32</v>
       </c>
       <c r="H50" s="47">
@@ -14912,13 +14906,13 @@
       <c r="D51" s="47">
         <v>2289</v>
       </c>
-      <c r="E51" s="69" t="s">
+      <c r="E51" s="63" t="s">
         <v>513</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="G51" s="70">
+      <c r="G51" s="64">
         <v>8.16</v>
       </c>
       <c r="H51" s="47">
@@ -14938,13 +14932,13 @@
       <c r="D52" s="47">
         <v>1705</v>
       </c>
-      <c r="E52" s="69" t="s">
+      <c r="E52" s="63" t="s">
         <v>514</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="70">
+      <c r="G52" s="64">
         <v>8.15</v>
       </c>
       <c r="H52" s="47">
@@ -14964,13 +14958,13 @@
       <c r="D53" s="47">
         <v>2403</v>
       </c>
-      <c r="E53" s="69" t="s">
+      <c r="E53" s="63" t="s">
         <v>515</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G53" s="70">
+      <c r="G53" s="64">
         <v>8.0399999999999991</v>
       </c>
       <c r="H53" s="47">
@@ -14990,13 +14984,13 @@
       <c r="D54" s="47">
         <v>2373</v>
       </c>
-      <c r="E54" s="69" t="s">
+      <c r="E54" s="63" t="s">
         <v>516</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G54" s="70">
+      <c r="G54" s="64">
         <v>8.02</v>
       </c>
       <c r="H54" s="47">
@@ -15016,13 +15010,13 @@
       <c r="D55" s="47">
         <v>1964</v>
       </c>
-      <c r="E55" s="69" t="s">
+      <c r="E55" s="63" t="s">
         <v>517</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="G55" s="70">
+      <c r="G55" s="64">
         <v>7.96</v>
       </c>
       <c r="H55" s="47">
@@ -15042,13 +15036,13 @@
       <c r="D56" s="47">
         <v>1757</v>
       </c>
-      <c r="E56" s="69" t="s">
+      <c r="E56" s="63" t="s">
         <v>518</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="G56" s="70">
+      <c r="G56" s="64">
         <v>7.93</v>
       </c>
       <c r="H56" s="47">
@@ -15068,13 +15062,13 @@
       <c r="D57" s="47">
         <v>2034</v>
       </c>
-      <c r="E57" s="69" t="s">
+      <c r="E57" s="63" t="s">
         <v>520</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="G57" s="70">
+      <c r="G57" s="64">
         <v>7.88</v>
       </c>
       <c r="H57" s="47">
@@ -15094,13 +15088,13 @@
       <c r="D58" s="47">
         <v>2050</v>
       </c>
-      <c r="E58" s="69" t="s">
+      <c r="E58" s="63" t="s">
         <v>521</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="G58" s="70">
+      <c r="G58" s="64">
         <v>7.86</v>
       </c>
       <c r="H58" s="47">
@@ -15120,13 +15114,13 @@
       <c r="D59" s="47">
         <v>2301</v>
       </c>
-      <c r="E59" s="69" t="s">
+      <c r="E59" s="63" t="s">
         <v>522</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="G59" s="70">
+      <c r="G59" s="64">
         <v>7.81</v>
       </c>
       <c r="H59" s="47">
@@ -15146,13 +15140,13 @@
       <c r="D60" s="47">
         <v>1535</v>
       </c>
-      <c r="E60" s="69" t="s">
+      <c r="E60" s="63" t="s">
         <v>523</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G60" s="70">
+      <c r="G60" s="64">
         <v>7.8</v>
       </c>
       <c r="H60" s="47">
@@ -15163,7 +15157,7 @@
       <c r="C61" s="47"/>
       <c r="D61" s="47"/>
       <c r="F61" s="47"/>
-      <c r="G61" s="70"/>
+      <c r="G61" s="64"/>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="C67" s="47">
@@ -15178,7 +15172,7 @@
       <c r="F67" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G67" s="70">
+      <c r="G67" s="64">
         <v>66.91</v>
       </c>
     </row>
@@ -15201,7 +15195,7 @@
       <c r="F68" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G68" s="70">
+      <c r="G68" s="64">
         <v>64.05</v>
       </c>
     </row>
@@ -15224,7 +15218,7 @@
       <c r="F69" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="70">
+      <c r="G69" s="64">
         <v>63.27</v>
       </c>
     </row>
@@ -15247,7 +15241,7 @@
       <c r="F70" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="G70" s="70">
+      <c r="G70" s="64">
         <v>63.25</v>
       </c>
     </row>
@@ -15270,7 +15264,7 @@
       <c r="F71" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="70">
+      <c r="G71" s="64">
         <v>63.22</v>
       </c>
     </row>
@@ -15293,7 +15287,7 @@
       <c r="F72" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="G72" s="70">
+      <c r="G72" s="64">
         <v>61.26</v>
       </c>
     </row>
@@ -15316,7 +15310,7 @@
       <c r="F73" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="G73" s="70">
+      <c r="G73" s="64">
         <v>61.12</v>
       </c>
     </row>
@@ -15339,7 +15333,7 @@
       <c r="F74" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="G74" s="70">
+      <c r="G74" s="64">
         <v>60.18</v>
       </c>
     </row>
@@ -15362,7 +15356,7 @@
       <c r="F75" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="G75" s="70">
+      <c r="G75" s="64">
         <v>59.59</v>
       </c>
     </row>
@@ -15385,7 +15379,7 @@
       <c r="F76" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="G76" s="70">
+      <c r="G76" s="64">
         <v>58.97</v>
       </c>
     </row>
@@ -15408,7 +15402,7 @@
       <c r="F77" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="G77" s="70">
+      <c r="G77" s="64">
         <v>57.93</v>
       </c>
     </row>
@@ -15431,7 +15425,7 @@
       <c r="F78" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="G78" s="70">
+      <c r="G78" s="64">
         <v>56.46</v>
       </c>
     </row>

--- a/plotly_aths_dashboard/Datasets/NASS list (20-21).xlsx
+++ b/plotly_aths_dashboard/Datasets/NASS list (20-21).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newmac/PycharmProjects/results-webanalytics/plotly_aths_dashboard/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF31066F-D1E4-964C-A7AB-CF59E4E57609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B400506-9173-2F4E-8260-0F67FD7FEAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="26700" windowHeight="16340" xr2:uid="{564ED280-EDFD-4442-B0F6-6AEC38A6FF97}"/>
+    <workbookView xWindow="1580" yWindow="-17400" windowWidth="26700" windowHeight="16340" xr2:uid="{564ED280-EDFD-4442-B0F6-6AEC38A6FF97}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Nass Athletes" sheetId="1" r:id="rId1"/>
@@ -2516,13 +2516,14 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
@@ -2538,13 +2539,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>523</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>127</v>
@@ -2562,14 +2563,14 @@
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>1</v>
+      <c r="A2" s="26">
+        <v>14336705</v>
       </c>
       <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" s="26">
-        <v>14336705</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>358</v>
@@ -2581,14 +2582,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23">
+        <v>14455361</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="C3" s="66" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="23">
-        <v>14455361</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>343</v>
@@ -2600,14 +2601,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23">
+        <v>14673644</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="C4" s="66" t="s">
         <v>144</v>
-      </c>
-      <c r="C4" s="23">
-        <v>14673644</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>497</v>
@@ -2619,14 +2620,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="24">
+        <v>14456885</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="24">
-        <v>14456885</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>498</v>
@@ -2639,14 +2640,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="24">
+        <v>14940604</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="C6" s="24">
-        <v>14940604</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>499</v>
@@ -2658,14 +2659,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="24">
+        <v>14436890</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="25" t="s">
         <v>359</v>
-      </c>
-      <c r="C7" s="24">
-        <v>14436890</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>500</v>
@@ -2678,14 +2679,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="24">
+        <v>14272002</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" s="24">
-        <v>14272002</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>501</v>
@@ -2697,14 +2698,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="24">
+        <v>14407592</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="C9" s="24">
-        <v>14407592</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>502</v>
@@ -2716,14 +2717,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="24">
+        <v>14464527</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="C10" s="24">
-        <v>14464527</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>358</v>
@@ -2735,14 +2736,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="24">
+        <v>14565327</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="24">
-        <v>14565327</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>503</v>
@@ -2754,14 +2755,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="24">
+        <v>14500488</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="C12" s="24">
-        <v>14500488</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>504</v>
@@ -2777,14 +2778,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="24">
+        <v>14271632</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="C13" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="C13" s="24">
-        <v>14271632</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>358</v>
@@ -2796,14 +2797,14 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="24">
+        <v>14457807</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" s="24">
-        <v>14457807</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>506</v>
@@ -2815,14 +2816,14 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="24">
+        <v>14411267</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="C15" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="C15" s="24">
-        <v>14411267</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>343</v>
@@ -2834,14 +2835,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="24">
+        <v>14387190</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="C16" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="C16" s="24">
-        <v>14387190</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>325</v>
@@ -2853,14 +2854,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="24">
+        <v>14271241</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="C17" s="24">
-        <v>14271241</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>507</v>
@@ -2872,14 +2873,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="52">
+        <v>14463325</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="C18" s="52" t="s">
         <v>524</v>
-      </c>
-      <c r="C18" s="52">
-        <v>14463325</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
@@ -2889,14 +2890,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="52">
+        <v>14575440</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="C19" s="67" t="s">
         <v>525</v>
-      </c>
-      <c r="C19" s="52">
-        <v>14575440</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
@@ -2906,14 +2907,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="52">
+        <v>14455195</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="C20" s="67" t="s">
         <v>526</v>
-      </c>
-      <c r="C20" s="52">
-        <v>14455195</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
@@ -2923,14 +2924,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="52">
+        <v>14613323</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="C21" s="67" t="s">
         <v>527</v>
-      </c>
-      <c r="C21" s="52">
-        <v>14613323</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>528</v>
@@ -2942,14 +2943,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="52">
+        <v>14490253</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="C22" s="67" t="s">
         <v>529</v>
-      </c>
-      <c r="C22" s="52">
-        <v>14490253</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
@@ -2959,14 +2960,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="52">
+        <v>14446988</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="C23" s="67" t="s">
         <v>530</v>
-      </c>
-      <c r="C23" s="52">
-        <v>14446988</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
@@ -2976,14 +2977,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="52">
+        <v>14617484</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="C24" s="67" t="s">
         <v>531</v>
-      </c>
-      <c r="C24" s="52">
-        <v>14617484</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
@@ -2993,14 +2994,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="52">
+        <v>14667553</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="C25" s="67" t="s">
         <v>532</v>
-      </c>
-      <c r="C25" s="52">
-        <v>14667553</v>
       </c>
       <c r="D25" s="52" t="s">
         <v>132</v>
@@ -3014,14 +3015,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="52">
+        <v>14464506</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="C26" s="67" t="s">
         <v>533</v>
-      </c>
-      <c r="C26" s="52">
-        <v>14464506</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>132</v>
@@ -3033,14 +3034,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="52">
+        <v>14550669</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="C27" s="67" t="s">
         <v>488</v>
-      </c>
-      <c r="C27" s="52">
-        <v>14550699</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>439</v>
@@ -3052,14 +3053,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="52">
+        <v>14433154</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="C28" s="67" t="s">
         <v>534</v>
-      </c>
-      <c r="C28" s="52">
-        <v>14433154</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -3069,14 +3070,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="52">
+        <v>14619618</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="C29" s="67" t="s">
         <v>535</v>
-      </c>
-      <c r="C29" s="52">
-        <v>14619618</v>
       </c>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
@@ -3086,14 +3087,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11">
+        <v>14436876</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="C30" s="68" t="s">
         <v>536</v>
-      </c>
-      <c r="C30" s="11">
-        <v>14436876</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>138</v>
@@ -3107,14 +3108,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11">
+        <v>14765461</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="C31" s="68" t="s">
         <v>537</v>
-      </c>
-      <c r="C31" s="11">
-        <v>14765461</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -3124,14 +3125,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11">
+        <v>14271807</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="C32" s="68" t="s">
         <v>538</v>
-      </c>
-      <c r="C32" s="11">
-        <v>14271807</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -3141,14 +3142,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11">
+        <v>14831970</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="C33" s="68" t="s">
         <v>539</v>
-      </c>
-      <c r="C33" s="11">
-        <v>14831970</v>
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -3158,14 +3159,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15">
+        <v>14514627</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="C34" s="69" t="s">
         <v>540</v>
-      </c>
-      <c r="C34" s="15">
-        <v>14514627</v>
       </c>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
@@ -3175,14 +3176,14 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15">
+        <v>14411273</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="C35" s="69" t="s">
         <v>541</v>
-      </c>
-      <c r="C35" s="15">
-        <v>14411273</v>
       </c>
       <c r="D35" s="56"/>
       <c r="E35" s="56"/>
@@ -3192,14 +3193,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15">
+        <v>14768392</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="C36" s="69" t="s">
         <v>542</v>
-      </c>
-      <c r="C36" s="15">
-        <v>14768392</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
@@ -3209,14 +3210,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15">
+        <v>14517121</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="C37" s="69" t="s">
         <v>543</v>
-      </c>
-      <c r="C37" s="15">
-        <v>14517121</v>
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="56"/>
@@ -3226,14 +3227,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15">
+        <v>14634207</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="C38" s="69" t="s">
         <v>544</v>
-      </c>
-      <c r="C38" s="15">
-        <v>14634207</v>
       </c>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
@@ -3243,14 +3244,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15">
+        <v>14636668</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="C39" s="69" t="s">
         <v>545</v>
-      </c>
-      <c r="C39" s="15">
-        <v>14636668</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
@@ -3260,14 +3261,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15">
+        <v>14674731</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="C40" s="69" t="s">
         <v>546</v>
-      </c>
-      <c r="C40" s="15">
-        <v>14674731</v>
       </c>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
@@ -3277,14 +3278,14 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15">
+        <v>14761633</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="C41" s="69" t="s">
         <v>547</v>
-      </c>
-      <c r="C41" s="15">
-        <v>14761633</v>
       </c>
       <c r="D41" s="56"/>
       <c r="E41" s="56"/>
@@ -3294,14 +3295,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15">
+        <v>14622433</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="C42" s="69" t="s">
         <v>548</v>
-      </c>
-      <c r="C42" s="15">
-        <v>14622433</v>
       </c>
       <c r="D42" s="56"/>
       <c r="E42" s="56"/>
@@ -3311,14 +3312,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15">
+        <v>14555113</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="C43" s="69" t="s">
         <v>549</v>
-      </c>
-      <c r="C43" s="15">
-        <v>14555113</v>
       </c>
       <c r="D43" s="56"/>
       <c r="E43" s="56"/>
@@ -3328,14 +3329,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15">
+        <v>14764890</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="69" t="s">
+      <c r="C44" s="69" t="s">
         <v>550</v>
-      </c>
-      <c r="C44" s="15">
-        <v>14764890</v>
       </c>
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
@@ -3345,14 +3346,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15">
+        <v>14517181</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="C45" s="69" t="s">
         <v>551</v>
-      </c>
-      <c r="C45" s="15">
-        <v>14517181</v>
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="56"/>
@@ -3362,14 +3363,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15">
+        <v>14448453</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="C46" s="69" t="s">
         <v>552</v>
-      </c>
-      <c r="C46" s="15">
-        <v>14448453</v>
       </c>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
@@ -3379,14 +3380,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15">
+        <v>14576384</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="C47" s="69" t="s">
         <v>553</v>
-      </c>
-      <c r="C47" s="15">
-        <v>14576384</v>
       </c>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
@@ -3396,14 +3397,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15">
+        <v>14517160</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="C48" s="69" t="s">
         <v>554</v>
-      </c>
-      <c r="C48" s="15">
-        <v>14517160</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
@@ -3413,14 +3414,14 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15">
+        <v>14611740</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="69" t="s">
+      <c r="C49" s="69" t="s">
         <v>555</v>
-      </c>
-      <c r="C49" s="15">
-        <v>14611740</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
@@ -3430,14 +3431,14 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="18">
+        <v>14732754</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="C50" s="70" t="s">
         <v>556</v>
-      </c>
-      <c r="C50" s="18">
-        <v>14732754</v>
       </c>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
@@ -3447,14 +3448,14 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="18">
+        <v>14673646</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="C51" s="70" t="s">
         <v>557</v>
-      </c>
-      <c r="C51" s="18">
-        <v>14673646</v>
       </c>
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
@@ -3464,14 +3465,14 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="18">
+        <v>14636659</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="C52" s="70" t="s">
         <v>558</v>
-      </c>
-      <c r="C52" s="18">
-        <v>14636659</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
@@ -3481,14 +3482,14 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="18">
+        <v>14733182</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="70" t="s">
+      <c r="C53" s="70" t="s">
         <v>559</v>
-      </c>
-      <c r="C53" s="18">
-        <v>14733182</v>
       </c>
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
@@ -3498,14 +3499,14 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="18">
+        <v>14615310</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="70" t="s">
+      <c r="C54" s="70" t="s">
         <v>560</v>
-      </c>
-      <c r="C54" s="18">
-        <v>14615310</v>
       </c>
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
@@ -3515,14 +3516,14 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="18">
+        <v>14769938</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="C55" s="70" t="s">
         <v>561</v>
-      </c>
-      <c r="C55" s="18">
-        <v>14769938</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="57"/>
@@ -3532,14 +3533,14 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="18">
+        <v>14731742</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="C56" s="70" t="s">
         <v>562</v>
-      </c>
-      <c r="C56" s="18">
-        <v>14731742</v>
       </c>
       <c r="D56" s="57"/>
       <c r="E56" s="57"/>
@@ -3549,14 +3550,14 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="18">
+        <v>14730127</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="C57" s="70" t="s">
         <v>563</v>
-      </c>
-      <c r="C57" s="18">
-        <v>14730127</v>
       </c>
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
@@ -3566,14 +3567,14 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="18">
+        <v>14787531</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="C58" s="70" t="s">
         <v>564</v>
-      </c>
-      <c r="C58" s="18">
-        <v>14787531</v>
       </c>
       <c r="D58" s="57"/>
       <c r="E58" s="57"/>
@@ -3583,14 +3584,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="18">
+        <v>14730464</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="C59" s="70" t="s">
         <v>565</v>
-      </c>
-      <c r="C59" s="18">
-        <v>14730464</v>
       </c>
       <c r="D59" s="57"/>
       <c r="E59" s="57"/>
@@ -3600,14 +3601,14 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18">
+        <v>14769953</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="C60" s="70" t="s">
         <v>566</v>
-      </c>
-      <c r="C60" s="18">
-        <v>14769953</v>
       </c>
       <c r="D60" s="57"/>
       <c r="E60" s="57"/>
@@ -3624,14 +3625,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="18">
+        <v>14861366</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="C61" s="70" t="s">
         <v>567</v>
-      </c>
-      <c r="C61" s="18">
-        <v>14861366</v>
       </c>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
@@ -3644,14 +3645,14 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18">
+        <v>14609656</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="C62" s="70" t="s">
         <v>568</v>
-      </c>
-      <c r="C62" s="18">
-        <v>14609656</v>
       </c>
       <c r="D62" s="57"/>
       <c r="E62" s="57"/>
@@ -3661,14 +3662,14 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="18">
+        <v>14820122</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="C63" s="70" t="s">
         <v>569</v>
-      </c>
-      <c r="C63" s="18">
-        <v>14820122</v>
       </c>
       <c r="D63" s="57"/>
       <c r="E63" s="57"/>
@@ -3685,14 +3686,14 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="18">
+        <v>14691224</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="C64" s="70" t="s">
         <v>570</v>
-      </c>
-      <c r="C64" s="18">
-        <v>14691224</v>
       </c>
       <c r="D64" s="57"/>
       <c r="E64" s="57"/>
@@ -3706,14 +3707,14 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="18">
+        <v>14861747</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="C65" s="70" t="s">
         <v>571</v>
-      </c>
-      <c r="C65" s="18">
-        <v>14861747</v>
       </c>
       <c r="D65" s="57"/>
       <c r="E65" s="57"/>
@@ -3723,14 +3724,14 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="18">
+        <v>14812564</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="70" t="s">
+      <c r="C66" s="70" t="s">
         <v>572</v>
-      </c>
-      <c r="C66" s="18">
-        <v>14812564</v>
       </c>
       <c r="D66" s="57"/>
       <c r="E66" s="57"/>
@@ -3740,14 +3741,14 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="18">
+        <v>14636671</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="C67" s="70" t="s">
         <v>573</v>
-      </c>
-      <c r="C67" s="18">
-        <v>14636671</v>
       </c>
       <c r="D67" s="57"/>
       <c r="E67" s="57"/>
@@ -3757,14 +3758,14 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="18">
+        <v>14777855</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="70" t="s">
+      <c r="C68" s="70" t="s">
         <v>574</v>
-      </c>
-      <c r="C68" s="18">
-        <v>14777855</v>
       </c>
       <c r="D68" s="57"/>
       <c r="E68" s="57"/>
@@ -3774,14 +3775,14 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="18">
+        <v>14774575</v>
+      </c>
+      <c r="B69" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="C69" s="70" t="s">
         <v>575</v>
-      </c>
-      <c r="C69" s="18">
-        <v>14774575</v>
       </c>
       <c r="D69" s="57"/>
       <c r="E69" s="57"/>
@@ -3791,14 +3792,14 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="18">
+        <v>14765468</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="C70" s="70" t="s">
         <v>577</v>
-      </c>
-      <c r="C70" s="18">
-        <v>14765468</v>
       </c>
       <c r="D70" s="57"/>
       <c r="E70" s="57"/>
@@ -3808,14 +3809,14 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="18">
+        <v>14814142</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="C71" s="70" t="s">
         <v>580</v>
-      </c>
-      <c r="C71" s="18">
-        <v>14814142</v>
       </c>
       <c r="D71" s="57"/>
       <c r="E71" s="57"/>
@@ -3825,14 +3826,14 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="18">
+        <v>14727709</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="C72" s="70" t="s">
         <v>581</v>
-      </c>
-      <c r="C72" s="18">
-        <v>14727709</v>
       </c>
       <c r="D72" s="57"/>
       <c r="E72" s="57"/>
@@ -3842,14 +3843,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="18">
+        <v>14328336</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="C73" s="70" t="s">
         <v>582</v>
-      </c>
-      <c r="C73" s="18">
-        <v>14328336</v>
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="57"/>
@@ -3859,14 +3860,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18">
+        <v>14865727</v>
+      </c>
+      <c r="B74" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="C74" s="70" t="s">
         <v>583</v>
-      </c>
-      <c r="C74" s="18">
-        <v>14865727</v>
       </c>
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
@@ -3876,14 +3877,14 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="18">
+        <v>14815270</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="C75" s="70" t="s">
         <v>584</v>
-      </c>
-      <c r="C75" s="18">
-        <v>14815270</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -3893,14 +3894,14 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="18">
+        <v>14859206</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="C76" s="70" t="s">
         <v>585</v>
-      </c>
-      <c r="C76" s="18">
-        <v>14859206</v>
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
@@ -3910,14 +3911,14 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="18">
+        <v>14576087</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="C77" s="70" t="s">
         <v>586</v>
-      </c>
-      <c r="C77" s="18">
-        <v>14576087</v>
       </c>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
@@ -3927,14 +3928,14 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="18">
+        <v>14861525</v>
+      </c>
+      <c r="B78" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="C78" s="70" t="s">
         <v>587</v>
-      </c>
-      <c r="C78" s="18">
-        <v>14861525</v>
       </c>
       <c r="D78" s="57"/>
       <c r="E78" s="57"/>
@@ -3944,14 +3945,14 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="18">
+        <v>14668498</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="C79" s="70" t="s">
         <v>588</v>
-      </c>
-      <c r="C79" s="18">
-        <v>14668498</v>
       </c>
       <c r="D79" s="57"/>
       <c r="E79" s="57"/>
@@ -3961,14 +3962,14 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="18">
+        <v>14730466</v>
+      </c>
+      <c r="B80" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="C80" s="70" t="s">
         <v>589</v>
-      </c>
-      <c r="C80" s="18">
-        <v>14730466</v>
       </c>
       <c r="D80" s="57"/>
       <c r="E80" s="57"/>
@@ -3978,14 +3979,14 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="18">
+        <v>14733176</v>
+      </c>
+      <c r="B81" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="C81" s="70" t="s">
         <v>590</v>
-      </c>
-      <c r="C81" s="18">
-        <v>14733176</v>
       </c>
       <c r="D81" s="57"/>
       <c r="E81" s="57"/>
@@ -3995,14 +3996,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="21">
+        <v>14519260</v>
+      </c>
+      <c r="B82" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="71" t="s">
+      <c r="C82" s="71" t="s">
         <v>591</v>
-      </c>
-      <c r="C82" s="21">
-        <v>14519260</v>
       </c>
       <c r="D82" s="58"/>
       <c r="E82" s="58"/>
@@ -4012,14 +4013,14 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="21">
+        <v>14360445</v>
+      </c>
+      <c r="B83" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="71" t="s">
+      <c r="C83" s="71" t="s">
         <v>592</v>
-      </c>
-      <c r="C83" s="21">
-        <v>14360445</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="58"/>
@@ -4029,14 +4030,14 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="21">
+        <v>14496696</v>
+      </c>
+      <c r="B84" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="71" t="s">
+      <c r="C84" s="71" t="s">
         <v>593</v>
-      </c>
-      <c r="C84" s="21">
-        <v>14496696</v>
       </c>
       <c r="D84" s="58"/>
       <c r="E84" s="58"/>
@@ -4046,14 +4047,14 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="21">
+        <v>14272435</v>
+      </c>
+      <c r="B85" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="71" t="s">
+      <c r="C85" s="71" t="s">
         <v>594</v>
-      </c>
-      <c r="C85" s="21">
-        <v>14272435</v>
       </c>
       <c r="D85" s="58"/>
       <c r="E85" s="58"/>
@@ -4063,14 +4064,14 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="21">
+        <v>14411012</v>
+      </c>
+      <c r="B86" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="C86" s="71" t="s">
         <v>595</v>
-      </c>
-      <c r="C86" s="21">
-        <v>14411012</v>
       </c>
       <c r="D86" s="58"/>
       <c r="E86" s="58"/>
@@ -4080,14 +4081,14 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="21">
+        <v>14406120</v>
+      </c>
+      <c r="B87" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="71" t="s">
+      <c r="C87" s="71" t="s">
         <v>596</v>
-      </c>
-      <c r="C87" s="21">
-        <v>14406120</v>
       </c>
       <c r="D87" s="58"/>
       <c r="E87" s="58"/>
@@ -4097,14 +4098,14 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="21">
+        <v>14336764</v>
+      </c>
+      <c r="B88" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="C88" s="71" t="s">
         <v>597</v>
-      </c>
-      <c r="C88" s="21">
-        <v>14336764</v>
       </c>
       <c r="D88" s="58"/>
       <c r="E88" s="58"/>
@@ -4114,14 +4115,14 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="21">
+        <v>14445318</v>
+      </c>
+      <c r="B89" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="71" t="s">
+      <c r="C89" s="71" t="s">
         <v>598</v>
-      </c>
-      <c r="C89" s="21">
-        <v>14445318</v>
       </c>
       <c r="D89" s="58"/>
       <c r="E89" s="58"/>
@@ -4131,14 +4132,14 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="21">
+        <v>14689546</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="71" t="s">
+      <c r="C90" s="71" t="s">
         <v>599</v>
-      </c>
-      <c r="C90" s="21">
-        <v>14689546</v>
       </c>
       <c r="D90" s="58"/>
       <c r="E90" s="58"/>
@@ -4148,14 +4149,14 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="21">
+        <v>14517594</v>
+      </c>
+      <c r="B91" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="71" t="s">
+      <c r="C91" s="71" t="s">
         <v>600</v>
-      </c>
-      <c r="C91" s="21">
-        <v>14517594</v>
       </c>
       <c r="D91" s="58"/>
       <c r="E91" s="58"/>
@@ -4165,14 +4166,14 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="21">
+        <v>14731617</v>
+      </c>
+      <c r="B92" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="C92" s="71" t="s">
         <v>601</v>
-      </c>
-      <c r="C92" s="21">
-        <v>14731617</v>
       </c>
       <c r="D92" s="58"/>
       <c r="E92" s="58"/>
@@ -4182,14 +4183,14 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="21">
+        <v>14471777</v>
+      </c>
+      <c r="B93" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="71" t="s">
+      <c r="C93" s="71" t="s">
         <v>602</v>
-      </c>
-      <c r="C93" s="21">
-        <v>14471777</v>
       </c>
       <c r="D93" s="58"/>
       <c r="E93" s="58"/>
@@ -4199,14 +4200,14 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="21">
+        <v>14608674</v>
+      </c>
+      <c r="B94" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="71" t="s">
+      <c r="C94" s="71" t="s">
         <v>603</v>
-      </c>
-      <c r="C94" s="21">
-        <v>14608674</v>
       </c>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
@@ -4216,14 +4217,14 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="21">
+        <v>14554575</v>
+      </c>
+      <c r="B95" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="71" t="s">
+      <c r="C95" s="71" t="s">
         <v>604</v>
-      </c>
-      <c r="C95" s="21">
-        <v>14554575</v>
       </c>
       <c r="D95" s="58"/>
       <c r="E95" s="58"/>
@@ -4233,14 +4234,14 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="21">
+        <v>14179673</v>
+      </c>
+      <c r="B96" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="C96" s="71" t="s">
         <v>605</v>
-      </c>
-      <c r="C96" s="21">
-        <v>14179673</v>
       </c>
       <c r="D96" s="58"/>
       <c r="E96" s="58"/>
@@ -4250,14 +4251,14 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="21">
+        <v>14272049</v>
+      </c>
+      <c r="B97" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="71" t="s">
+      <c r="C97" s="71" t="s">
         <v>606</v>
-      </c>
-      <c r="C97" s="21">
-        <v>14272049</v>
       </c>
       <c r="D97" s="58"/>
       <c r="E97" s="58"/>
@@ -4267,14 +4268,14 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="21">
+        <v>14533629</v>
+      </c>
+      <c r="B98" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="71" t="s">
+      <c r="C98" s="71" t="s">
         <v>607</v>
-      </c>
-      <c r="C98" s="21">
-        <v>14533629</v>
       </c>
       <c r="D98" s="58"/>
       <c r="E98" s="58"/>
@@ -4284,14 +4285,14 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="21">
+        <v>14549778</v>
+      </c>
+      <c r="B99" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="71" t="s">
+      <c r="C99" s="71" t="s">
         <v>608</v>
-      </c>
-      <c r="C99" s="21">
-        <v>14549778</v>
       </c>
       <c r="D99" s="58"/>
       <c r="E99" s="58"/>
@@ -4301,14 +4302,14 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="21">
+        <v>14553618</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="71" t="s">
+      <c r="C100" s="71" t="s">
         <v>609</v>
-      </c>
-      <c r="C100" s="21">
-        <v>14553618</v>
       </c>
       <c r="D100" s="58"/>
       <c r="E100" s="58"/>
@@ -4318,14 +4319,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="21">
+        <v>14384288</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="71" t="s">
+      <c r="C101" s="71" t="s">
         <v>610</v>
-      </c>
-      <c r="C101" s="21">
-        <v>14384288</v>
       </c>
       <c r="D101" s="58"/>
       <c r="E101" s="58"/>
@@ -4335,14 +4336,14 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="21">
+        <v>14495639</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="71" t="s">
+      <c r="C102" s="71" t="s">
         <v>611</v>
-      </c>
-      <c r="C102" s="21">
-        <v>14495639</v>
       </c>
       <c r="D102" s="58"/>
       <c r="E102" s="58"/>
@@ -4352,14 +4353,14 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="21">
+        <v>14514622</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="71" t="s">
+      <c r="C103" s="71" t="s">
         <v>612</v>
-      </c>
-      <c r="C103" s="21">
-        <v>14514622</v>
       </c>
       <c r="D103" s="58"/>
       <c r="E103" s="58"/>
@@ -4369,14 +4370,14 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="21">
+        <v>14411163</v>
+      </c>
+      <c r="B104" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="71" t="s">
+      <c r="C104" s="71" t="s">
         <v>613</v>
-      </c>
-      <c r="C104" s="21">
-        <v>14411163</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="58"/>
@@ -4386,14 +4387,14 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="21">
+        <v>14924344</v>
+      </c>
+      <c r="B105" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="71" t="s">
+      <c r="C105" s="71" t="s">
         <v>614</v>
-      </c>
-      <c r="C105" s="21">
-        <v>14924344</v>
       </c>
       <c r="D105" s="58"/>
       <c r="E105" s="58"/>
@@ -4403,14 +4404,14 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="21">
+        <v>14496066</v>
+      </c>
+      <c r="B106" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="71" t="s">
+      <c r="C106" s="71" t="s">
         <v>615</v>
-      </c>
-      <c r="C106" s="21">
-        <v>14496066</v>
       </c>
       <c r="D106" s="58"/>
       <c r="E106" s="58"/>
@@ -4420,14 +4421,14 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="21">
+        <v>14552175</v>
+      </c>
+      <c r="B107" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="71" t="s">
+      <c r="C107" s="71" t="s">
         <v>616</v>
-      </c>
-      <c r="C107" s="21">
-        <v>14552175</v>
       </c>
       <c r="D107" s="58"/>
       <c r="E107" s="58"/>
@@ -4437,14 +4438,14 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="21">
+        <v>14271509</v>
+      </c>
+      <c r="B108" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="71" t="s">
+      <c r="C108" s="71" t="s">
         <v>617</v>
-      </c>
-      <c r="C108" s="21">
-        <v>14271509</v>
       </c>
       <c r="D108" s="58"/>
       <c r="E108" s="58"/>
@@ -4454,14 +4455,14 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="21">
+        <v>14517173</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="71" t="s">
+      <c r="C109" s="71" t="s">
         <v>618</v>
-      </c>
-      <c r="C109" s="21">
-        <v>14517173</v>
       </c>
       <c r="D109" s="58"/>
       <c r="E109" s="58"/>
@@ -4471,14 +4472,14 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="21">
+        <v>14727680</v>
+      </c>
+      <c r="B110" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="71" t="s">
+      <c r="C110" s="71" t="s">
         <v>619</v>
-      </c>
-      <c r="C110" s="21">
-        <v>14727680</v>
       </c>
       <c r="D110" s="58"/>
       <c r="E110" s="58"/>
@@ -4488,14 +4489,14 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="21">
+        <v>14336706</v>
+      </c>
+      <c r="B111" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="71" t="s">
+      <c r="C111" s="71" t="s">
         <v>620</v>
-      </c>
-      <c r="C111" s="21">
-        <v>14336706</v>
       </c>
       <c r="D111" s="58"/>
       <c r="E111" s="58"/>
@@ -4505,14 +4506,14 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="21">
+        <v>14370966</v>
+      </c>
+      <c r="B112" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="71" t="s">
+      <c r="C112" s="71" t="s">
         <v>621</v>
-      </c>
-      <c r="C112" s="21">
-        <v>14370966</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="58"/>
@@ -4522,14 +4523,14 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="21">
+        <v>14386314</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="71" t="s">
+      <c r="C113" s="71" t="s">
         <v>622</v>
-      </c>
-      <c r="C113" s="21">
-        <v>14386314</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="58"/>
@@ -4539,14 +4540,14 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
+      <c r="A114" s="21">
+        <v>14336656</v>
+      </c>
+      <c r="B114" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="71" t="s">
+      <c r="C114" s="71" t="s">
         <v>623</v>
-      </c>
-      <c r="C114" s="21">
-        <v>14336656</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="58"/>
@@ -4556,14 +4557,14 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="21">
+        <v>14668477</v>
+      </c>
+      <c r="B115" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="71" t="s">
+      <c r="C115" s="71" t="s">
         <v>624</v>
-      </c>
-      <c r="C115" s="21">
-        <v>14668477</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="58"/>
@@ -4573,14 +4574,14 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="21">
+        <v>14271094</v>
+      </c>
+      <c r="B116" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="C116" s="71" t="s">
         <v>625</v>
-      </c>
-      <c r="C116" s="21">
-        <v>14271094</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="58"/>
@@ -4590,14 +4591,14 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="21">
+        <v>14271451</v>
+      </c>
+      <c r="B117" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="71" t="s">
+      <c r="C117" s="71" t="s">
         <v>626</v>
-      </c>
-      <c r="C117" s="21">
-        <v>14271451</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="58"/>
@@ -4607,14 +4608,14 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="21">
+        <v>14496063</v>
+      </c>
+      <c r="B118" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="71" t="s">
+      <c r="C118" s="71" t="s">
         <v>627</v>
-      </c>
-      <c r="C118" s="21">
-        <v>14496063</v>
       </c>
       <c r="D118" s="58"/>
       <c r="E118" s="58"/>
@@ -4625,123 +4626,123 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{5BDFE520-16CB-BE40-829B-429EB66B038B}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{3481D53A-307E-674D-A840-500C7C7CD5BB}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7A78C07C-40D0-D348-BF4F-66FE88DE6606}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{010259FB-FD37-A446-A991-DC0C5BB29D41}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{4BBAFCBD-C8B7-DF4D-B12A-8CB01E9588D0}"/>
-    <hyperlink ref="A2" location="'Kelsey-Lee Barber'!A1" display="Kelsey-Lee Barber" xr:uid="{2D01CD26-BFD2-7A41-A196-8776D7A49D94}"/>
-    <hyperlink ref="B27" r:id="rId6" xr:uid="{2E28AF3A-87F9-7343-9A2A-931A843114F2}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{31A1224D-37DA-BE4F-B256-AC0EB8D527EC}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{6D28681E-4964-C646-9E3C-3767D0D14F61}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{221595B9-899F-894A-8A74-831DC44AD9B9}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{1E552513-B49A-3846-A87F-88B02C1030EE}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{B30551CC-C456-4842-ACD8-D3E3527DB9EE}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{EDBB6029-09CD-3347-8F80-65D4F059C0E6}"/>
-    <hyperlink ref="B11" r:id="rId13" xr:uid="{8B27AC48-7484-4B4B-BC9D-C722C70C8BE4}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{E834035D-BEF9-D940-8110-C191CE719DF0}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{B49B3EF7-CC08-E940-89CB-7B6D9864D6A2}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{DEC2D618-3DC6-5547-AC81-6D692EB59D8E}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{A7FB5AF4-CE5F-244B-B896-633C6FCE6741}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{C50AEB72-0FF2-0748-87C7-47042211A2E1}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{2CC8784A-DEB4-374A-A8A8-96B0A55003D6}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{287065AB-7882-0F49-A80B-B8AB56121E78}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{4E319D69-1913-5648-B88A-41943885DA78}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{474569AF-4507-A746-874F-FD6A08858B7C}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{2369EDB3-7966-E045-B17C-7D49F4209D6E}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{2B82700B-E01B-054A-8463-E042DA8DE9E9}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{5B299B8D-FC15-EA4D-A348-8A1107CDB87C}"/>
-    <hyperlink ref="B28" r:id="rId26" xr:uid="{BD8E03B5-7734-5040-A036-639A7312D848}"/>
-    <hyperlink ref="B29" r:id="rId27" xr:uid="{FDB94F7B-8157-8242-8215-2D53E0471795}"/>
-    <hyperlink ref="B30" r:id="rId28" xr:uid="{177E86F2-865F-7D43-AB64-69111B1208C5}"/>
-    <hyperlink ref="B31" r:id="rId29" xr:uid="{2DB786D5-70DB-1A44-B6F6-93449E477FC6}"/>
-    <hyperlink ref="B32" r:id="rId30" xr:uid="{57CCA506-517A-4E40-BD77-DB0F896C9B95}"/>
-    <hyperlink ref="B33" r:id="rId31" xr:uid="{96B3516C-363B-724E-B25F-EAE3ABAF4583}"/>
-    <hyperlink ref="B34" r:id="rId32" xr:uid="{8EEF7748-9274-684A-BCE6-BE42033ADB1C}"/>
-    <hyperlink ref="B35" r:id="rId33" xr:uid="{87B9DF1B-08C6-3041-A13C-C127BEBDF4AD}"/>
-    <hyperlink ref="B36" r:id="rId34" xr:uid="{FA8A4992-D850-874A-B6BD-56FC04FCD5E6}"/>
-    <hyperlink ref="B37" r:id="rId35" xr:uid="{D6288D2E-DA9D-E547-9245-16D9A182C272}"/>
-    <hyperlink ref="B38" r:id="rId36" xr:uid="{88C5EC7C-3DAC-A348-8A03-C2B7C66BF20C}"/>
-    <hyperlink ref="B39" r:id="rId37" xr:uid="{C3F6C6F5-0124-7F48-8DC3-BDDB8F4EDDA4}"/>
-    <hyperlink ref="B40" r:id="rId38" xr:uid="{C93F0D03-27D1-1E4D-BF44-44DDE934F4E9}"/>
-    <hyperlink ref="B41" r:id="rId39" xr:uid="{58CC83D5-1A5B-994E-9A37-F15C7870D073}"/>
-    <hyperlink ref="B42" r:id="rId40" xr:uid="{3CDA131E-3AE0-7942-9995-938DC87D782A}"/>
-    <hyperlink ref="B43" r:id="rId41" xr:uid="{4B250D2B-1CD4-9B44-B7FE-AD066E3BEA54}"/>
-    <hyperlink ref="B44" r:id="rId42" xr:uid="{29F4B7A5-8619-A743-9399-ADAEC0A753D1}"/>
-    <hyperlink ref="B45" r:id="rId43" xr:uid="{0939C258-7394-C748-80D9-391806ED9D14}"/>
-    <hyperlink ref="B46" r:id="rId44" xr:uid="{F8B63064-E333-FF45-81B0-889D2F1505A5}"/>
-    <hyperlink ref="B47" r:id="rId45" xr:uid="{A62A9B4B-F302-524C-9A65-5F1040899869}"/>
-    <hyperlink ref="B48" r:id="rId46" xr:uid="{8878D9DB-DEC9-0C4C-B59F-1CF79FB91494}"/>
-    <hyperlink ref="B49" r:id="rId47" xr:uid="{2084E062-884B-5849-80A4-1C05B9AF4A47}"/>
-    <hyperlink ref="B50" r:id="rId48" xr:uid="{7DFACB67-663C-CC44-BA70-37058F5D2698}"/>
-    <hyperlink ref="B51" r:id="rId49" xr:uid="{AC023A00-B6F8-3C44-AAB1-B3043C42A9CE}"/>
-    <hyperlink ref="B52" r:id="rId50" xr:uid="{A37153EC-59B2-874B-BC3F-9947AD3DB30A}"/>
-    <hyperlink ref="B53" r:id="rId51" xr:uid="{E12FA655-E81A-284D-A722-EA11646AF1F8}"/>
-    <hyperlink ref="B54" r:id="rId52" xr:uid="{C0966C0C-180F-3A4D-919D-DFE512488EA5}"/>
-    <hyperlink ref="B55" r:id="rId53" xr:uid="{B0CBF1FD-A766-304F-865D-A32D69EF1725}"/>
-    <hyperlink ref="B56" r:id="rId54" xr:uid="{CAD6F9E1-90AC-334B-BE3D-98099554C92B}"/>
-    <hyperlink ref="B57" r:id="rId55" xr:uid="{6AFF6CEA-E226-9E4A-B907-3D734788CAD3}"/>
-    <hyperlink ref="B58" r:id="rId56" xr:uid="{94BC9E5E-144E-AF46-BA5D-A0BA88D16B0D}"/>
-    <hyperlink ref="B59" r:id="rId57" xr:uid="{71E318A3-E18E-5F4A-9455-FE10EECE3515}"/>
-    <hyperlink ref="B60" r:id="rId58" xr:uid="{69480926-796C-8B4F-A6E4-C1630B69848C}"/>
-    <hyperlink ref="B61" r:id="rId59" xr:uid="{8CC09D2B-E2B5-FB43-8E18-27997E5F2A79}"/>
-    <hyperlink ref="B62" r:id="rId60" xr:uid="{7450F356-66DB-8F4A-BDD2-11EA57CFA65D}"/>
-    <hyperlink ref="B63" r:id="rId61" xr:uid="{0ABC35D4-7688-CE43-9DCC-962C086DA771}"/>
-    <hyperlink ref="B64" r:id="rId62" xr:uid="{6A133C70-C98B-8A4D-A57B-FBB1B89BA6A6}"/>
-    <hyperlink ref="B65" r:id="rId63" xr:uid="{F7E40578-04C2-1844-95DD-1189FB21ED86}"/>
-    <hyperlink ref="B66" r:id="rId64" xr:uid="{5DBEEC89-1E69-BA4C-9D30-9392E4A1CD1F}"/>
-    <hyperlink ref="B67" r:id="rId65" xr:uid="{676675DE-0420-1F46-999E-A9A4B9C4D92D}"/>
-    <hyperlink ref="B68" r:id="rId66" xr:uid="{581D84B7-1434-F540-AF7D-D9EF1A585C0C}"/>
-    <hyperlink ref="B69" r:id="rId67" xr:uid="{FD33E4EC-99D4-0B4C-95CC-421E11538DF5}"/>
-    <hyperlink ref="B70" r:id="rId68" xr:uid="{4E776B8A-605E-0143-9BAF-BCC57B0E8F2E}"/>
-    <hyperlink ref="B71" r:id="rId69" xr:uid="{C43FC6B3-0824-AD42-9496-5C68D734C501}"/>
-    <hyperlink ref="B72" r:id="rId70" xr:uid="{9802629D-5D55-0249-9099-741458B7BC29}"/>
-    <hyperlink ref="B73" r:id="rId71" xr:uid="{D46B3B2A-D6B1-0040-9D3E-054145F9259B}"/>
-    <hyperlink ref="B74" r:id="rId72" xr:uid="{1D99EB58-95A6-6645-98CA-5B921BE294A9}"/>
-    <hyperlink ref="B75" r:id="rId73" xr:uid="{143CBC70-6770-714C-A69F-12E5DF7335AB}"/>
-    <hyperlink ref="B76" r:id="rId74" xr:uid="{3BFC8891-CE66-DD45-8D1E-A293F9B7326C}"/>
-    <hyperlink ref="B77" r:id="rId75" xr:uid="{5EB02429-24C1-5D4A-9739-CA89C5573927}"/>
-    <hyperlink ref="B78" r:id="rId76" xr:uid="{A2135472-423A-DB4E-9951-7A1107F28934}"/>
-    <hyperlink ref="B79" r:id="rId77" xr:uid="{ED48B4D1-D3BD-9047-ABBD-548A8AEA7FDF}"/>
-    <hyperlink ref="B80" r:id="rId78" xr:uid="{A8F94266-9771-ED44-9548-DB8F6272BE83}"/>
-    <hyperlink ref="B81" r:id="rId79" xr:uid="{7AE0C37A-6826-D249-9298-2D106534E3AD}"/>
-    <hyperlink ref="B82" r:id="rId80" xr:uid="{3195422C-6DFE-5F40-A5BB-E122E3970222}"/>
-    <hyperlink ref="B83" r:id="rId81" xr:uid="{90AF666D-E065-EC43-B407-3D42A1C3BE83}"/>
-    <hyperlink ref="B84" r:id="rId82" xr:uid="{F7015498-7FFA-EE44-BDAE-02DB3CF503E6}"/>
-    <hyperlink ref="B85" r:id="rId83" xr:uid="{79D9211A-13FA-6448-A881-630F0B52B466}"/>
-    <hyperlink ref="B86" r:id="rId84" xr:uid="{BC89CF87-5182-7B48-BEE1-AAF8896C2626}"/>
-    <hyperlink ref="B87" r:id="rId85" xr:uid="{F697BEF6-2B0D-014B-A69E-8CCE894F2620}"/>
-    <hyperlink ref="B88" r:id="rId86" xr:uid="{BE3A6C63-D36B-364A-8C7F-EEFD51F6275D}"/>
-    <hyperlink ref="B89" r:id="rId87" xr:uid="{38352BF4-579A-744C-9360-CCF4C778AA72}"/>
-    <hyperlink ref="B90" r:id="rId88" xr:uid="{76C8F907-4650-7B41-AB35-7C56B06422E9}"/>
-    <hyperlink ref="B91" r:id="rId89" xr:uid="{5C805822-10A4-2849-9C47-399CB05267E4}"/>
-    <hyperlink ref="B92" r:id="rId90" xr:uid="{77C0DCF5-CA34-FE48-8C65-688EBD7E6A8D}"/>
-    <hyperlink ref="B93" r:id="rId91" xr:uid="{699637CC-BC28-B14B-8FD1-8A62C00E3A61}"/>
-    <hyperlink ref="B94" r:id="rId92" xr:uid="{872178CD-7B2A-C446-8502-28770B2E1E2E}"/>
-    <hyperlink ref="B95" r:id="rId93" xr:uid="{FA43C457-1276-624A-B279-4F949719DFC4}"/>
-    <hyperlink ref="B96" r:id="rId94" xr:uid="{39A5A3C4-DD38-0546-A1DF-A574F04F0DFC}"/>
-    <hyperlink ref="B97" r:id="rId95" xr:uid="{DFC0E445-2535-B741-ADD1-E356999DDBC9}"/>
-    <hyperlink ref="B98" r:id="rId96" xr:uid="{C00692C4-8F00-FD40-8EEE-322FC9F880BC}"/>
-    <hyperlink ref="B99" r:id="rId97" xr:uid="{FB022B8E-1BDF-9649-98FB-192623922FE6}"/>
-    <hyperlink ref="B100" r:id="rId98" xr:uid="{06647445-D515-8242-8CFA-31A9878A11E3}"/>
-    <hyperlink ref="B101" r:id="rId99" xr:uid="{BE15C2D0-2F68-164C-B3BE-6B615620EF74}"/>
-    <hyperlink ref="B102" r:id="rId100" xr:uid="{A9B41A96-EEBA-974D-9BA9-43823202BF2A}"/>
-    <hyperlink ref="B103" r:id="rId101" xr:uid="{2A6B66F7-B5D9-7642-B029-0B9904099CDE}"/>
-    <hyperlink ref="B104" r:id="rId102" xr:uid="{8EF3A48F-EF0A-2842-B728-350F40F0364D}"/>
-    <hyperlink ref="B105" r:id="rId103" xr:uid="{2C6ADAD6-A34F-5246-9AD8-0AE5F732FB0D}"/>
-    <hyperlink ref="B106" r:id="rId104" xr:uid="{EB8278F6-CE6B-F342-A5A1-B9484460F748}"/>
-    <hyperlink ref="B107" r:id="rId105" xr:uid="{AD1DCBF6-F10C-EF4A-9345-04D801E98577}"/>
-    <hyperlink ref="B108" r:id="rId106" xr:uid="{01DC53B2-FE96-F047-8162-D263C7D9B2DA}"/>
-    <hyperlink ref="B109" r:id="rId107" xr:uid="{A0A099D6-D2C6-D34B-8E96-51EDF4B471AA}"/>
-    <hyperlink ref="B110" r:id="rId108" xr:uid="{554E1262-5B19-5E48-9CCA-870501460B21}"/>
-    <hyperlink ref="B111" r:id="rId109" xr:uid="{D30F9D7C-B08E-D04B-B73E-D90CE69D332D}"/>
-    <hyperlink ref="B112" r:id="rId110" xr:uid="{3C93F053-BEB9-FF42-8688-2F0AFFE85842}"/>
-    <hyperlink ref="B113" r:id="rId111" xr:uid="{11DE9BCC-8008-E548-A3E0-FA49D87658ED}"/>
-    <hyperlink ref="B114" r:id="rId112" xr:uid="{0356E5CA-B5BD-BF44-927A-EED27AB2626D}"/>
-    <hyperlink ref="B115" r:id="rId113" xr:uid="{0D0EBDB7-E780-D844-AABA-12D6F001C671}"/>
-    <hyperlink ref="B116" r:id="rId114" xr:uid="{E5F3DA9F-28D1-6D46-B13E-10C7627D022B}"/>
-    <hyperlink ref="B117" r:id="rId115" xr:uid="{7333DB2D-41C6-8E49-AF25-E85A69C1D19D}"/>
-    <hyperlink ref="B118" r:id="rId116" xr:uid="{B123718A-2720-7944-A6EF-4CC619F7FA19}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{5BDFE520-16CB-BE40-829B-429EB66B038B}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{3481D53A-307E-674D-A840-500C7C7CD5BB}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{7A78C07C-40D0-D348-BF4F-66FE88DE6606}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{010259FB-FD37-A446-A991-DC0C5BB29D41}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{4BBAFCBD-C8B7-DF4D-B12A-8CB01E9588D0}"/>
+    <hyperlink ref="B2" location="'Kelsey-Lee Barber'!A1" display="Kelsey-Lee Barber" xr:uid="{2D01CD26-BFD2-7A41-A196-8776D7A49D94}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{2E28AF3A-87F9-7343-9A2A-931A843114F2}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{31A1224D-37DA-BE4F-B256-AC0EB8D527EC}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{6D28681E-4964-C646-9E3C-3767D0D14F61}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{221595B9-899F-894A-8A74-831DC44AD9B9}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{1E552513-B49A-3846-A87F-88B02C1030EE}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{B30551CC-C456-4842-ACD8-D3E3527DB9EE}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{EDBB6029-09CD-3347-8F80-65D4F059C0E6}"/>
+    <hyperlink ref="C11" r:id="rId13" xr:uid="{8B27AC48-7484-4B4B-BC9D-C722C70C8BE4}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{E834035D-BEF9-D940-8110-C191CE719DF0}"/>
+    <hyperlink ref="C14" r:id="rId15" xr:uid="{B49B3EF7-CC08-E940-89CB-7B6D9864D6A2}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{DEC2D618-3DC6-5547-AC81-6D692EB59D8E}"/>
+    <hyperlink ref="C17" r:id="rId17" xr:uid="{A7FB5AF4-CE5F-244B-B896-633C6FCE6741}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{C50AEB72-0FF2-0748-87C7-47042211A2E1}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{2CC8784A-DEB4-374A-A8A8-96B0A55003D6}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{287065AB-7882-0F49-A80B-B8AB56121E78}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{4E319D69-1913-5648-B88A-41943885DA78}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{474569AF-4507-A746-874F-FD6A08858B7C}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{2369EDB3-7966-E045-B17C-7D49F4209D6E}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{2B82700B-E01B-054A-8463-E042DA8DE9E9}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{5B299B8D-FC15-EA4D-A348-8A1107CDB87C}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{BD8E03B5-7734-5040-A036-639A7312D848}"/>
+    <hyperlink ref="C29" r:id="rId27" xr:uid="{FDB94F7B-8157-8242-8215-2D53E0471795}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{177E86F2-865F-7D43-AB64-69111B1208C5}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{2DB786D5-70DB-1A44-B6F6-93449E477FC6}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{57CCA506-517A-4E40-BD77-DB0F896C9B95}"/>
+    <hyperlink ref="C33" r:id="rId31" xr:uid="{96B3516C-363B-724E-B25F-EAE3ABAF4583}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{8EEF7748-9274-684A-BCE6-BE42033ADB1C}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{87B9DF1B-08C6-3041-A13C-C127BEBDF4AD}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{FA8A4992-D850-874A-B6BD-56FC04FCD5E6}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{D6288D2E-DA9D-E547-9245-16D9A182C272}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{88C5EC7C-3DAC-A348-8A03-C2B7C66BF20C}"/>
+    <hyperlink ref="C39" r:id="rId37" xr:uid="{C3F6C6F5-0124-7F48-8DC3-BDDB8F4EDDA4}"/>
+    <hyperlink ref="C40" r:id="rId38" xr:uid="{C93F0D03-27D1-1E4D-BF44-44DDE934F4E9}"/>
+    <hyperlink ref="C41" r:id="rId39" xr:uid="{58CC83D5-1A5B-994E-9A37-F15C7870D073}"/>
+    <hyperlink ref="C42" r:id="rId40" xr:uid="{3CDA131E-3AE0-7942-9995-938DC87D782A}"/>
+    <hyperlink ref="C43" r:id="rId41" xr:uid="{4B250D2B-1CD4-9B44-B7FE-AD066E3BEA54}"/>
+    <hyperlink ref="C44" r:id="rId42" xr:uid="{29F4B7A5-8619-A743-9399-ADAEC0A753D1}"/>
+    <hyperlink ref="C45" r:id="rId43" xr:uid="{0939C258-7394-C748-80D9-391806ED9D14}"/>
+    <hyperlink ref="C46" r:id="rId44" xr:uid="{F8B63064-E333-FF45-81B0-889D2F1505A5}"/>
+    <hyperlink ref="C47" r:id="rId45" xr:uid="{A62A9B4B-F302-524C-9A65-5F1040899869}"/>
+    <hyperlink ref="C48" r:id="rId46" xr:uid="{8878D9DB-DEC9-0C4C-B59F-1CF79FB91494}"/>
+    <hyperlink ref="C49" r:id="rId47" xr:uid="{2084E062-884B-5849-80A4-1C05B9AF4A47}"/>
+    <hyperlink ref="C50" r:id="rId48" xr:uid="{7DFACB67-663C-CC44-BA70-37058F5D2698}"/>
+    <hyperlink ref="C51" r:id="rId49" xr:uid="{AC023A00-B6F8-3C44-AAB1-B3043C42A9CE}"/>
+    <hyperlink ref="C52" r:id="rId50" xr:uid="{A37153EC-59B2-874B-BC3F-9947AD3DB30A}"/>
+    <hyperlink ref="C53" r:id="rId51" xr:uid="{E12FA655-E81A-284D-A722-EA11646AF1F8}"/>
+    <hyperlink ref="C54" r:id="rId52" xr:uid="{C0966C0C-180F-3A4D-919D-DFE512488EA5}"/>
+    <hyperlink ref="C55" r:id="rId53" xr:uid="{B0CBF1FD-A766-304F-865D-A32D69EF1725}"/>
+    <hyperlink ref="C56" r:id="rId54" xr:uid="{CAD6F9E1-90AC-334B-BE3D-98099554C92B}"/>
+    <hyperlink ref="C57" r:id="rId55" xr:uid="{6AFF6CEA-E226-9E4A-B907-3D734788CAD3}"/>
+    <hyperlink ref="C58" r:id="rId56" xr:uid="{94BC9E5E-144E-AF46-BA5D-A0BA88D16B0D}"/>
+    <hyperlink ref="C59" r:id="rId57" xr:uid="{71E318A3-E18E-5F4A-9455-FE10EECE3515}"/>
+    <hyperlink ref="C60" r:id="rId58" xr:uid="{69480926-796C-8B4F-A6E4-C1630B69848C}"/>
+    <hyperlink ref="C61" r:id="rId59" xr:uid="{8CC09D2B-E2B5-FB43-8E18-27997E5F2A79}"/>
+    <hyperlink ref="C62" r:id="rId60" xr:uid="{7450F356-66DB-8F4A-BDD2-11EA57CFA65D}"/>
+    <hyperlink ref="C63" r:id="rId61" xr:uid="{0ABC35D4-7688-CE43-9DCC-962C086DA771}"/>
+    <hyperlink ref="C64" r:id="rId62" xr:uid="{6A133C70-C98B-8A4D-A57B-FBB1B89BA6A6}"/>
+    <hyperlink ref="C65" r:id="rId63" xr:uid="{F7E40578-04C2-1844-95DD-1189FB21ED86}"/>
+    <hyperlink ref="C66" r:id="rId64" xr:uid="{5DBEEC89-1E69-BA4C-9D30-9392E4A1CD1F}"/>
+    <hyperlink ref="C67" r:id="rId65" xr:uid="{676675DE-0420-1F46-999E-A9A4B9C4D92D}"/>
+    <hyperlink ref="C68" r:id="rId66" xr:uid="{581D84B7-1434-F540-AF7D-D9EF1A585C0C}"/>
+    <hyperlink ref="C69" r:id="rId67" xr:uid="{FD33E4EC-99D4-0B4C-95CC-421E11538DF5}"/>
+    <hyperlink ref="C70" r:id="rId68" xr:uid="{4E776B8A-605E-0143-9BAF-BCC57B0E8F2E}"/>
+    <hyperlink ref="C71" r:id="rId69" xr:uid="{C43FC6B3-0824-AD42-9496-5C68D734C501}"/>
+    <hyperlink ref="C72" r:id="rId70" xr:uid="{9802629D-5D55-0249-9099-741458B7BC29}"/>
+    <hyperlink ref="C73" r:id="rId71" xr:uid="{D46B3B2A-D6B1-0040-9D3E-054145F9259B}"/>
+    <hyperlink ref="C74" r:id="rId72" xr:uid="{1D99EB58-95A6-6645-98CA-5B921BE294A9}"/>
+    <hyperlink ref="C75" r:id="rId73" xr:uid="{143CBC70-6770-714C-A69F-12E5DF7335AB}"/>
+    <hyperlink ref="C76" r:id="rId74" xr:uid="{3BFC8891-CE66-DD45-8D1E-A293F9B7326C}"/>
+    <hyperlink ref="C77" r:id="rId75" xr:uid="{5EB02429-24C1-5D4A-9739-CA89C5573927}"/>
+    <hyperlink ref="C78" r:id="rId76" xr:uid="{A2135472-423A-DB4E-9951-7A1107F28934}"/>
+    <hyperlink ref="C79" r:id="rId77" xr:uid="{ED48B4D1-D3BD-9047-ABBD-548A8AEA7FDF}"/>
+    <hyperlink ref="C80" r:id="rId78" xr:uid="{A8F94266-9771-ED44-9548-DB8F6272BE83}"/>
+    <hyperlink ref="C81" r:id="rId79" xr:uid="{7AE0C37A-6826-D249-9298-2D106534E3AD}"/>
+    <hyperlink ref="C82" r:id="rId80" xr:uid="{3195422C-6DFE-5F40-A5BB-E122E3970222}"/>
+    <hyperlink ref="C83" r:id="rId81" xr:uid="{90AF666D-E065-EC43-B407-3D42A1C3BE83}"/>
+    <hyperlink ref="C84" r:id="rId82" xr:uid="{F7015498-7FFA-EE44-BDAE-02DB3CF503E6}"/>
+    <hyperlink ref="C85" r:id="rId83" xr:uid="{79D9211A-13FA-6448-A881-630F0B52B466}"/>
+    <hyperlink ref="C86" r:id="rId84" xr:uid="{BC89CF87-5182-7B48-BEE1-AAF8896C2626}"/>
+    <hyperlink ref="C87" r:id="rId85" xr:uid="{F697BEF6-2B0D-014B-A69E-8CCE894F2620}"/>
+    <hyperlink ref="C88" r:id="rId86" xr:uid="{BE3A6C63-D36B-364A-8C7F-EEFD51F6275D}"/>
+    <hyperlink ref="C89" r:id="rId87" xr:uid="{38352BF4-579A-744C-9360-CCF4C778AA72}"/>
+    <hyperlink ref="C90" r:id="rId88" xr:uid="{76C8F907-4650-7B41-AB35-7C56B06422E9}"/>
+    <hyperlink ref="C91" r:id="rId89" xr:uid="{5C805822-10A4-2849-9C47-399CB05267E4}"/>
+    <hyperlink ref="C92" r:id="rId90" xr:uid="{77C0DCF5-CA34-FE48-8C65-688EBD7E6A8D}"/>
+    <hyperlink ref="C93" r:id="rId91" xr:uid="{699637CC-BC28-B14B-8FD1-8A62C00E3A61}"/>
+    <hyperlink ref="C94" r:id="rId92" xr:uid="{872178CD-7B2A-C446-8502-28770B2E1E2E}"/>
+    <hyperlink ref="C95" r:id="rId93" xr:uid="{FA43C457-1276-624A-B279-4F949719DFC4}"/>
+    <hyperlink ref="C96" r:id="rId94" xr:uid="{39A5A3C4-DD38-0546-A1DF-A574F04F0DFC}"/>
+    <hyperlink ref="C97" r:id="rId95" xr:uid="{DFC0E445-2535-B741-ADD1-E356999DDBC9}"/>
+    <hyperlink ref="C98" r:id="rId96" xr:uid="{C00692C4-8F00-FD40-8EEE-322FC9F880BC}"/>
+    <hyperlink ref="C99" r:id="rId97" xr:uid="{FB022B8E-1BDF-9649-98FB-192623922FE6}"/>
+    <hyperlink ref="C100" r:id="rId98" xr:uid="{06647445-D515-8242-8CFA-31A9878A11E3}"/>
+    <hyperlink ref="C101" r:id="rId99" xr:uid="{BE15C2D0-2F68-164C-B3BE-6B615620EF74}"/>
+    <hyperlink ref="C102" r:id="rId100" xr:uid="{A9B41A96-EEBA-974D-9BA9-43823202BF2A}"/>
+    <hyperlink ref="C103" r:id="rId101" xr:uid="{2A6B66F7-B5D9-7642-B029-0B9904099CDE}"/>
+    <hyperlink ref="C104" r:id="rId102" xr:uid="{8EF3A48F-EF0A-2842-B728-350F40F0364D}"/>
+    <hyperlink ref="C105" r:id="rId103" xr:uid="{2C6ADAD6-A34F-5246-9AD8-0AE5F732FB0D}"/>
+    <hyperlink ref="C106" r:id="rId104" xr:uid="{EB8278F6-CE6B-F342-A5A1-B9484460F748}"/>
+    <hyperlink ref="C107" r:id="rId105" xr:uid="{AD1DCBF6-F10C-EF4A-9345-04D801E98577}"/>
+    <hyperlink ref="C108" r:id="rId106" xr:uid="{01DC53B2-FE96-F047-8162-D263C7D9B2DA}"/>
+    <hyperlink ref="C109" r:id="rId107" xr:uid="{A0A099D6-D2C6-D34B-8E96-51EDF4B471AA}"/>
+    <hyperlink ref="C110" r:id="rId108" xr:uid="{554E1262-5B19-5E48-9CCA-870501460B21}"/>
+    <hyperlink ref="C111" r:id="rId109" xr:uid="{D30F9D7C-B08E-D04B-B73E-D90CE69D332D}"/>
+    <hyperlink ref="C112" r:id="rId110" xr:uid="{3C93F053-BEB9-FF42-8688-2F0AFFE85842}"/>
+    <hyperlink ref="C113" r:id="rId111" xr:uid="{11DE9BCC-8008-E548-A3E0-FA49D87658ED}"/>
+    <hyperlink ref="C114" r:id="rId112" xr:uid="{0356E5CA-B5BD-BF44-927A-EED27AB2626D}"/>
+    <hyperlink ref="C115" r:id="rId113" xr:uid="{0D0EBDB7-E780-D844-AABA-12D6F001C671}"/>
+    <hyperlink ref="C116" r:id="rId114" xr:uid="{E5F3DA9F-28D1-6D46-B13E-10C7627D022B}"/>
+    <hyperlink ref="C117" r:id="rId115" xr:uid="{7333DB2D-41C6-8E49-AF25-E85A69C1D19D}"/>
+    <hyperlink ref="C118" r:id="rId116" xr:uid="{B123718A-2720-7944-A6EF-4CC619F7FA19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/plotly_aths_dashboard/Datasets/NASS list (20-21).xlsx
+++ b/plotly_aths_dashboard/Datasets/NASS list (20-21).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newmac/PycharmProjects/results-webanalytics/plotly_aths_dashboard/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B400506-9173-2F4E-8260-0F67FD7FEAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3459C59D-DDF1-3246-B246-58A50A907288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="-17400" windowWidth="26700" windowHeight="16340" xr2:uid="{564ED280-EDFD-4442-B0F6-6AEC38A6FF97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{564ED280-EDFD-4442-B0F6-6AEC38A6FF97}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Nass Athletes" sheetId="1" r:id="rId1"/>
@@ -1789,9 +1789,6 @@
     <t>https://worldathletics.org/athletes/australia/monique-quirk-14727709</t>
   </si>
   <si>
-    <t>https://worldathletics.org/athletes/united-states/alexandra-roberts-14328336</t>
-  </si>
-  <si>
     <t>https://worldathletics.org/athletes/australia/ky-robinson-14865727</t>
   </si>
   <si>
@@ -1925,6 +1922,9 @@
   </si>
   <si>
     <t>https://worldathletics.org/athletes/australia/georgia-winkcup-14496063</t>
+  </si>
+  <si>
+    <t>https://worldathletics.org/athletes/australia/alexandra-roberts-14689526</t>
   </si>
 </sst>
 </file>
@@ -2515,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E4AA14-B1E0-1E4A-8B5F-586100A0B502}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3844,13 +3844,13 @@
     </row>
     <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
-        <v>14328336</v>
+        <v>14689526</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="57"/>
@@ -3867,7 +3867,7 @@
         <v>76</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
@@ -3884,7 +3884,7 @@
         <v>77</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -3901,7 +3901,7 @@
         <v>78</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
@@ -3918,7 +3918,7 @@
         <v>79</v>
       </c>
       <c r="C77" s="70" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
@@ -3935,7 +3935,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D78" s="57"/>
       <c r="E78" s="57"/>
@@ -3952,7 +3952,7 @@
         <v>81</v>
       </c>
       <c r="C79" s="70" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D79" s="57"/>
       <c r="E79" s="57"/>
@@ -3969,7 +3969,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D80" s="57"/>
       <c r="E80" s="57"/>
@@ -3986,7 +3986,7 @@
         <v>83</v>
       </c>
       <c r="C81" s="70" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D81" s="57"/>
       <c r="E81" s="57"/>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="71" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D82" s="58"/>
       <c r="E82" s="58"/>
@@ -4020,7 +4020,7 @@
         <v>86</v>
       </c>
       <c r="C83" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="58"/>
@@ -4037,7 +4037,7 @@
         <v>87</v>
       </c>
       <c r="C84" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D84" s="58"/>
       <c r="E84" s="58"/>
@@ -4054,7 +4054,7 @@
         <v>88</v>
       </c>
       <c r="C85" s="71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D85" s="58"/>
       <c r="E85" s="58"/>
@@ -4071,7 +4071,7 @@
         <v>89</v>
       </c>
       <c r="C86" s="71" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D86" s="58"/>
       <c r="E86" s="58"/>
@@ -4088,7 +4088,7 @@
         <v>90</v>
       </c>
       <c r="C87" s="71" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D87" s="58"/>
       <c r="E87" s="58"/>
@@ -4105,7 +4105,7 @@
         <v>91</v>
       </c>
       <c r="C88" s="71" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D88" s="58"/>
       <c r="E88" s="58"/>
@@ -4122,7 +4122,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="71" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D89" s="58"/>
       <c r="E89" s="58"/>
@@ -4139,7 +4139,7 @@
         <v>93</v>
       </c>
       <c r="C90" s="71" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D90" s="58"/>
       <c r="E90" s="58"/>
@@ -4156,7 +4156,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="71" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D91" s="58"/>
       <c r="E91" s="58"/>
@@ -4173,7 +4173,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="71" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D92" s="58"/>
       <c r="E92" s="58"/>
@@ -4190,7 +4190,7 @@
         <v>96</v>
       </c>
       <c r="C93" s="71" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D93" s="58"/>
       <c r="E93" s="58"/>
@@ -4207,7 +4207,7 @@
         <v>97</v>
       </c>
       <c r="C94" s="71" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
@@ -4224,7 +4224,7 @@
         <v>98</v>
       </c>
       <c r="C95" s="71" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D95" s="58"/>
       <c r="E95" s="58"/>
@@ -4241,7 +4241,7 @@
         <v>99</v>
       </c>
       <c r="C96" s="71" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D96" s="58"/>
       <c r="E96" s="58"/>
@@ -4258,7 +4258,7 @@
         <v>100</v>
       </c>
       <c r="C97" s="71" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D97" s="58"/>
       <c r="E97" s="58"/>
@@ -4275,7 +4275,7 @@
         <v>101</v>
       </c>
       <c r="C98" s="71" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D98" s="58"/>
       <c r="E98" s="58"/>
@@ -4292,7 +4292,7 @@
         <v>102</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D99" s="58"/>
       <c r="E99" s="58"/>
@@ -4309,7 +4309,7 @@
         <v>103</v>
       </c>
       <c r="C100" s="71" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D100" s="58"/>
       <c r="E100" s="58"/>
@@ -4326,7 +4326,7 @@
         <v>104</v>
       </c>
       <c r="C101" s="71" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D101" s="58"/>
       <c r="E101" s="58"/>
@@ -4343,7 +4343,7 @@
         <v>105</v>
       </c>
       <c r="C102" s="71" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D102" s="58"/>
       <c r="E102" s="58"/>
@@ -4360,7 +4360,7 @@
         <v>106</v>
       </c>
       <c r="C103" s="71" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D103" s="58"/>
       <c r="E103" s="58"/>
@@ -4377,7 +4377,7 @@
         <v>107</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="58"/>
@@ -4394,7 +4394,7 @@
         <v>108</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D105" s="58"/>
       <c r="E105" s="58"/>
@@ -4411,7 +4411,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D106" s="58"/>
       <c r="E106" s="58"/>
@@ -4428,7 +4428,7 @@
         <v>110</v>
       </c>
       <c r="C107" s="71" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D107" s="58"/>
       <c r="E107" s="58"/>
@@ -4445,7 +4445,7 @@
         <v>111</v>
       </c>
       <c r="C108" s="71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D108" s="58"/>
       <c r="E108" s="58"/>
@@ -4462,7 +4462,7 @@
         <v>112</v>
       </c>
       <c r="C109" s="71" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D109" s="58"/>
       <c r="E109" s="58"/>
@@ -4479,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="C110" s="71" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D110" s="58"/>
       <c r="E110" s="58"/>
@@ -4496,7 +4496,7 @@
         <v>114</v>
       </c>
       <c r="C111" s="71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D111" s="58"/>
       <c r="E111" s="58"/>
@@ -4513,7 +4513,7 @@
         <v>115</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="58"/>
@@ -4530,7 +4530,7 @@
         <v>116</v>
       </c>
       <c r="C113" s="71" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="58"/>
@@ -4547,7 +4547,7 @@
         <v>117</v>
       </c>
       <c r="C114" s="71" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="58"/>
@@ -4564,7 +4564,7 @@
         <v>118</v>
       </c>
       <c r="C115" s="71" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="58"/>
@@ -4581,7 +4581,7 @@
         <v>119</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="58"/>
@@ -4598,7 +4598,7 @@
         <v>120</v>
       </c>
       <c r="C117" s="71" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="58"/>
@@ -4615,7 +4615,7 @@
         <v>121</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D118" s="58"/>
       <c r="E118" s="58"/>

--- a/plotly_aths_dashboard/Datasets/NASS list (20-21).xlsx
+++ b/plotly_aths_dashboard/Datasets/NASS list (20-21).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newmac/PycharmProjects/results-webanalytics/plotly_aths_dashboard/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3459C59D-DDF1-3246-B246-58A50A907288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE2622-905F-2E42-9554-0AFDF383C4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{564ED280-EDFD-4442-B0F6-6AEC38A6FF97}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="625">
   <si>
     <t>GOLD</t>
   </si>
@@ -1771,16 +1771,7 @@
     <t>https://worldathletics.org/athletes/australia/oscar-miers-14774575</t>
   </si>
   <si>
-    <t>3mins for 10</t>
-  </si>
-  <si>
     <t>https://worldathletics.org/athletes/australia/connor-murphy-14765468</t>
-  </si>
-  <si>
-    <t>49 left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180sec for 10 </t>
   </si>
   <si>
     <t>https://worldathletics.org/athletes/australia/tomas-palfrey-14814142</t>
@@ -2217,7 +2208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2505,7 +2496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2513,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E4AA14-B1E0-1E4A-8B5F-586100A0B502}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3413,7 +3404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>14611740</v>
       </c>
@@ -3430,7 +3421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>14732754</v>
       </c>
@@ -3447,7 +3438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>14673646</v>
       </c>
@@ -3464,7 +3455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>14636659</v>
       </c>
@@ -3481,7 +3472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <v>14733182</v>
       </c>
@@ -3498,7 +3489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <v>14615310</v>
       </c>
@@ -3515,7 +3506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <v>14769938</v>
       </c>
@@ -3532,7 +3523,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>14731742</v>
       </c>
@@ -3549,7 +3540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>14730127</v>
       </c>
@@ -3566,7 +3557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>14787531</v>
       </c>
@@ -3583,7 +3574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <v>14730464</v>
       </c>
@@ -3600,7 +3591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <v>14769953</v>
       </c>
@@ -3616,15 +3607,8 @@
       <c r="G60" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I60" t="s">
-        <v>579</v>
-      </c>
-      <c r="J60">
-        <f>180/10</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>14861366</v>
       </c>
@@ -3640,11 +3624,8 @@
       <c r="G61" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I61" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>14609656</v>
       </c>
@@ -3661,7 +3642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>14820122</v>
       </c>
@@ -3677,15 +3658,8 @@
       <c r="G63" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I63" t="s">
-        <v>578</v>
-      </c>
-      <c r="J63">
-        <f>18*49</f>
-        <v>882</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>14691224</v>
       </c>
@@ -3701,10 +3675,6 @@
       <c r="G64" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J64">
-        <f>J63/60</f>
-        <v>14.7</v>
-      </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
@@ -3799,7 +3769,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D70" s="57"/>
       <c r="E70" s="57"/>
@@ -3816,7 +3786,7 @@
         <v>73</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D71" s="57"/>
       <c r="E71" s="57"/>
@@ -3833,7 +3803,7 @@
         <v>74</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D72" s="57"/>
       <c r="E72" s="57"/>
@@ -3850,7 +3820,7 @@
         <v>75</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="57"/>
@@ -3867,7 +3837,7 @@
         <v>76</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
@@ -3884,7 +3854,7 @@
         <v>77</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
@@ -3901,7 +3871,7 @@
         <v>78</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
@@ -3918,7 +3888,7 @@
         <v>79</v>
       </c>
       <c r="C77" s="70" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
@@ -3935,7 +3905,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D78" s="57"/>
       <c r="E78" s="57"/>
@@ -3952,7 +3922,7 @@
         <v>81</v>
       </c>
       <c r="C79" s="70" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D79" s="57"/>
       <c r="E79" s="57"/>
@@ -3969,7 +3939,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D80" s="57"/>
       <c r="E80" s="57"/>
@@ -3986,7 +3956,7 @@
         <v>83</v>
       </c>
       <c r="C81" s="70" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D81" s="57"/>
       <c r="E81" s="57"/>
@@ -4003,7 +3973,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="71" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D82" s="58"/>
       <c r="E82" s="58"/>
@@ -4020,7 +3990,7 @@
         <v>86</v>
       </c>
       <c r="C83" s="71" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="58"/>
@@ -4037,7 +4007,7 @@
         <v>87</v>
       </c>
       <c r="C84" s="71" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D84" s="58"/>
       <c r="E84" s="58"/>
@@ -4054,7 +4024,7 @@
         <v>88</v>
       </c>
       <c r="C85" s="71" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D85" s="58"/>
       <c r="E85" s="58"/>
@@ -4071,7 +4041,7 @@
         <v>89</v>
       </c>
       <c r="C86" s="71" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D86" s="58"/>
       <c r="E86" s="58"/>
@@ -4088,7 +4058,7 @@
         <v>90</v>
       </c>
       <c r="C87" s="71" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D87" s="58"/>
       <c r="E87" s="58"/>
@@ -4105,7 +4075,7 @@
         <v>91</v>
       </c>
       <c r="C88" s="71" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D88" s="58"/>
       <c r="E88" s="58"/>
@@ -4122,7 +4092,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="71" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D89" s="58"/>
       <c r="E89" s="58"/>
@@ -4139,7 +4109,7 @@
         <v>93</v>
       </c>
       <c r="C90" s="71" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D90" s="58"/>
       <c r="E90" s="58"/>
@@ -4156,7 +4126,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="71" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D91" s="58"/>
       <c r="E91" s="58"/>
@@ -4173,7 +4143,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="71" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D92" s="58"/>
       <c r="E92" s="58"/>
@@ -4190,7 +4160,7 @@
         <v>96</v>
       </c>
       <c r="C93" s="71" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D93" s="58"/>
       <c r="E93" s="58"/>
@@ -4207,7 +4177,7 @@
         <v>97</v>
       </c>
       <c r="C94" s="71" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
@@ -4224,7 +4194,7 @@
         <v>98</v>
       </c>
       <c r="C95" s="71" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D95" s="58"/>
       <c r="E95" s="58"/>
@@ -4241,7 +4211,7 @@
         <v>99</v>
       </c>
       <c r="C96" s="71" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D96" s="58"/>
       <c r="E96" s="58"/>
@@ -4258,7 +4228,7 @@
         <v>100</v>
       </c>
       <c r="C97" s="71" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D97" s="58"/>
       <c r="E97" s="58"/>
@@ -4275,7 +4245,7 @@
         <v>101</v>
       </c>
       <c r="C98" s="71" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D98" s="58"/>
       <c r="E98" s="58"/>
@@ -4292,7 +4262,7 @@
         <v>102</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D99" s="58"/>
       <c r="E99" s="58"/>
@@ -4309,7 +4279,7 @@
         <v>103</v>
       </c>
       <c r="C100" s="71" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D100" s="58"/>
       <c r="E100" s="58"/>
@@ -4326,7 +4296,7 @@
         <v>104</v>
       </c>
       <c r="C101" s="71" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D101" s="58"/>
       <c r="E101" s="58"/>
@@ -4343,7 +4313,7 @@
         <v>105</v>
       </c>
       <c r="C102" s="71" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D102" s="58"/>
       <c r="E102" s="58"/>
@@ -4360,7 +4330,7 @@
         <v>106</v>
       </c>
       <c r="C103" s="71" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D103" s="58"/>
       <c r="E103" s="58"/>
@@ -4377,7 +4347,7 @@
         <v>107</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="58"/>
@@ -4394,7 +4364,7 @@
         <v>108</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D105" s="58"/>
       <c r="E105" s="58"/>
@@ -4411,7 +4381,7 @@
         <v>109</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D106" s="58"/>
       <c r="E106" s="58"/>
@@ -4428,7 +4398,7 @@
         <v>110</v>
       </c>
       <c r="C107" s="71" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D107" s="58"/>
       <c r="E107" s="58"/>
@@ -4445,7 +4415,7 @@
         <v>111</v>
       </c>
       <c r="C108" s="71" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D108" s="58"/>
       <c r="E108" s="58"/>
@@ -4462,7 +4432,7 @@
         <v>112</v>
       </c>
       <c r="C109" s="71" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D109" s="58"/>
       <c r="E109" s="58"/>
@@ -4479,7 +4449,7 @@
         <v>113</v>
       </c>
       <c r="C110" s="71" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D110" s="58"/>
       <c r="E110" s="58"/>
@@ -4496,7 +4466,7 @@
         <v>114</v>
       </c>
       <c r="C111" s="71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D111" s="58"/>
       <c r="E111" s="58"/>
@@ -4513,7 +4483,7 @@
         <v>115</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="58"/>
@@ -4530,7 +4500,7 @@
         <v>116</v>
       </c>
       <c r="C113" s="71" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="58"/>
@@ -4547,7 +4517,7 @@
         <v>117</v>
       </c>
       <c r="C114" s="71" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="58"/>
@@ -4564,7 +4534,7 @@
         <v>118</v>
       </c>
       <c r="C115" s="71" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="58"/>
@@ -4581,7 +4551,7 @@
         <v>119</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="58"/>
@@ -4598,7 +4568,7 @@
         <v>120</v>
       </c>
       <c r="C117" s="71" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="58"/>
@@ -4615,7 +4585,7 @@
         <v>121</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D118" s="58"/>
       <c r="E118" s="58"/>
@@ -14567,7 +14537,7 @@
       </c>
       <c r="H5" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="47">
         <v>1284</v>
@@ -14627,7 +14597,7 @@
       </c>
       <c r="H7" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="47">
         <v>1277</v>
